--- a/ReferenceData/ReferenceDataSheeet.xlsx
+++ b/ReferenceData/ReferenceDataSheeet.xlsx
@@ -1,19 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Downloads\MSc_Air_Traffic_Operations\3rd_quarter\SVV-FD TA\FD-Simulation\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\Documents\TU Delft\BSc-3\AE3212-II Simulation, Verification &amp; Validation\Aerodynamics\31\B31\ReferenceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{704D9DF0-9931-48B8-AC4F-629C6FF71527}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF46246B-1AA2-4BC2-803D-28D97CC6DC10}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-5600" windowWidth="38620" windowHeight="21360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38290" yWindow="-5600" windowWidth="38620" windowHeight="21360" activeTab="1" xr2:uid="{1FD3C907-9013-4892-BB69-443E11E95842}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Imperial" sheetId="1" r:id="rId1"/>
+    <sheet name="Metric" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +25,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="118">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -219,36 +223,21 @@
     <t>1.7</t>
   </si>
   <si>
-    <t>12.5</t>
-  </si>
-  <si>
     <t>2.4</t>
   </si>
   <si>
-    <t>10.5</t>
-  </si>
-  <si>
     <t>3.6</t>
   </si>
   <si>
-    <t>8.8</t>
-  </si>
-  <si>
     <t>5.4</t>
   </si>
   <si>
-    <t>7.2</t>
-  </si>
-  <si>
     <t>8.7</t>
   </si>
   <si>
     <t>10.6</t>
   </si>
   <si>
-    <t>5.2</t>
-  </si>
-  <si>
     <t>5.3</t>
   </si>
   <si>
@@ -352,6 +341,57 @@
   </si>
   <si>
     <t>1:05:20</t>
+  </si>
+  <si>
+    <t>Post-Flight Data Sheet AE3202 - METRIC</t>
+  </si>
+  <si>
+    <t>date of flight</t>
+  </si>
+  <si>
+    <t>T/O Time:</t>
+  </si>
+  <si>
+    <t>co-ordinator</t>
+  </si>
+  <si>
+    <t>observer 1L</t>
+  </si>
+  <si>
+    <t>observer 1R</t>
+  </si>
+  <si>
+    <t>observer 2L</t>
+  </si>
+  <si>
+    <t>observer 2R</t>
+  </si>
+  <si>
+    <t>observer 3L</t>
+  </si>
+  <si>
+    <t>observer 3R</t>
+  </si>
+  <si>
+    <t>block fuel [kg]</t>
+  </si>
+  <si>
+    <t>[m]</t>
+  </si>
+  <si>
+    <t>[m/s]</t>
+  </si>
+  <si>
+    <t>[kg/hr]</t>
+  </si>
+  <si>
+    <t>[kg]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fe </t>
+  </si>
+  <si>
+    <t xml:space="preserve">ET* </t>
   </si>
 </sst>
 </file>
@@ -361,7 +401,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="h:mm;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -389,6 +429,19 @@
       <u/>
       <sz val="11"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -434,7 +487,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
@@ -458,6 +511,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -574,9 +631,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>426600</xdr:colOff>
+      <xdr:colOff>425330</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>129240</xdr:rowOff>
+      <xdr:rowOff>126700</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -902,18 +959,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H71" sqref="H71"/>
+    </sheetView>
+    <sheetView topLeftCell="A45" workbookViewId="1">
+      <selection activeCell="J59" sqref="J59"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -925,7 +985,7 @@
       </c>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -937,13 +997,13 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="1"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="D7" t="s">
         <v>6</v>
       </c>
@@ -951,7 +1011,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -960,7 +1020,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -969,7 +1029,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -978,7 +1038,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -987,7 +1047,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -996,7 +1056,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1005,7 +1065,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1014,7 +1074,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1023,7 +1083,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1032,7 +1092,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1040,12 +1100,12 @@
         <v>4050</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -1053,7 +1113,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -1085,7 +1145,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="3" t="s">
         <v>31</v>
       </c>
@@ -1114,12 +1174,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>1</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2">
@@ -1140,16 +1200,16 @@
       <c r="I28" s="2">
         <v>360</v>
       </c>
-      <c r="J28" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J28" s="2">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>2</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2">
@@ -1159,7 +1219,7 @@
         <v>221</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G29" s="2">
         <v>673</v>
@@ -1170,16 +1230,16 @@
       <c r="I29" s="2">
         <v>412</v>
       </c>
-      <c r="J29" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J29" s="2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>3</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2">
@@ -1189,7 +1249,7 @@
         <v>192</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G30" s="2">
         <v>561</v>
@@ -1200,16 +1260,16 @@
       <c r="I30" s="2">
         <v>447</v>
       </c>
-      <c r="J30" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J30" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>4</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
@@ -1219,7 +1279,7 @@
         <v>163</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="G31" s="2">
         <v>463</v>
@@ -1230,16 +1290,16 @@
       <c r="I31" s="2">
         <v>478</v>
       </c>
-      <c r="J31" s="2" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J31" s="2">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>5</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2">
@@ -1249,7 +1309,7 @@
         <v>130</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="G32" s="2">
         <v>443</v>
@@ -1264,12 +1324,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>6</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2">
@@ -1279,7 +1339,7 @@
         <v>118</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="G33" s="2">
         <v>474</v>
@@ -1290,11 +1350,11 @@
       <c r="I33" s="2">
         <v>570</v>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="J33" s="2">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>7</v>
       </c>
@@ -1308,23 +1368,23 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="C35" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" t="s">
         <v>41</v>
       </c>
       <c r="E39" s="2"/>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" t="s">
         <v>21</v>
       </c>
@@ -1356,7 +1416,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="3" t="s">
         <v>42</v>
       </c>
@@ -1385,7 +1445,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1399,7 +1459,7 @@
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>2</v>
       </c>
@@ -1413,7 +1473,7 @@
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>3</v>
       </c>
@@ -1427,7 +1487,7 @@
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1441,7 +1501,7 @@
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1455,7 +1515,7 @@
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>6</v>
       </c>
@@ -1469,7 +1529,7 @@
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>7</v>
       </c>
@@ -1483,17 +1543,17 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C51" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" t="s">
         <v>19</v>
       </c>
@@ -1501,7 +1561,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" t="s">
         <v>21</v>
       </c>
@@ -1542,7 +1602,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="3" t="s">
         <v>42</v>
       </c>
@@ -1580,12 +1640,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>1</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2">
@@ -1595,13 +1655,13 @@
         <v>161</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G59" s="2">
         <v>0</v>
       </c>
-      <c r="H59" s="2" t="s">
-        <v>72</v>
+      <c r="H59" s="2">
+        <v>2.8</v>
       </c>
       <c r="I59" s="2">
         <v>0</v>
@@ -1616,15 +1676,15 @@
         <v>664</v>
       </c>
       <c r="M59" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>2</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2">
@@ -1634,13 +1694,13 @@
         <v>150</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="G60" s="2">
         <v>-0.4</v>
       </c>
-      <c r="H60" s="2" t="s">
-        <v>72</v>
+      <c r="H60" s="2">
+        <v>2.8</v>
       </c>
       <c r="I60" s="2">
         <v>-23</v>
@@ -1655,15 +1715,15 @@
         <v>694</v>
       </c>
       <c r="M60" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>3</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2">
@@ -1673,13 +1733,13 @@
         <v>140</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="G61" s="2">
         <v>-0.9</v>
       </c>
-      <c r="H61" s="2" t="s">
-        <v>72</v>
+      <c r="H61" s="2">
+        <v>2.8</v>
       </c>
       <c r="I61" s="2">
         <v>-29</v>
@@ -1694,15 +1754,15 @@
         <v>730</v>
       </c>
       <c r="M61" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>4</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2">
@@ -1712,13 +1772,13 @@
         <v>130</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="G62" s="2">
         <v>-1.5</v>
       </c>
-      <c r="H62" s="2" t="s">
-        <v>72</v>
+      <c r="H62" s="2">
+        <v>2.8</v>
       </c>
       <c r="I62" s="2">
         <v>-46</v>
@@ -1733,15 +1793,15 @@
         <v>755</v>
       </c>
       <c r="M62" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>5</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2">
@@ -1751,13 +1811,13 @@
         <v>173</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="G63" s="2">
         <v>0.4</v>
       </c>
-      <c r="H63" s="2" t="s">
-        <v>72</v>
+      <c r="H63" s="2">
+        <v>2.8</v>
       </c>
       <c r="I63" s="2">
         <v>26</v>
@@ -1772,15 +1832,15 @@
         <v>798</v>
       </c>
       <c r="M63" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>6</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2">
@@ -1790,13 +1850,13 @@
         <v>179</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="G64" s="2">
         <v>0.6</v>
       </c>
-      <c r="H64" s="2" t="s">
-        <v>72</v>
+      <c r="H64" s="2">
+        <v>2.8</v>
       </c>
       <c r="I64" s="2">
         <v>40</v>
@@ -1811,15 +1871,15 @@
         <v>825</v>
       </c>
       <c r="M64" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>7</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2">
@@ -1829,13 +1889,13 @@
         <v>192</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G65" s="2">
         <v>1</v>
       </c>
-      <c r="H65" s="2" t="s">
-        <v>72</v>
+      <c r="H65" s="2">
+        <v>2.8</v>
       </c>
       <c r="I65" s="2">
         <v>83</v>
@@ -1850,26 +1910,26 @@
         <v>846</v>
       </c>
       <c r="M65" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C66" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" t="s">
         <v>49</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -1883,7 +1943,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" t="s">
         <v>21</v>
       </c>
@@ -1924,7 +1984,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="3" t="s">
         <v>42</v>
       </c>
@@ -1962,12 +2022,12 @@
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>1</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2">
@@ -1977,13 +2037,13 @@
         <v>161</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="G75" s="2">
         <v>0</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I75" s="2">
         <v>0</v>
@@ -1998,15 +2058,15 @@
         <v>881</v>
       </c>
       <c r="M75" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>2</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2">
@@ -2022,7 +2082,7 @@
         <v>-0.5</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I76" s="2">
         <v>-30</v>
@@ -2037,20 +2097,20 @@
         <v>910</v>
       </c>
       <c r="M76" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C77" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D81" t="s">
         <v>53</v>
       </c>
@@ -2061,7 +2121,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="D82" t="s">
         <v>42</v>
       </c>
@@ -2072,44 +2132,44 @@
         <v>42</v>
       </c>
     </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" t="s">
         <v>54</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="E83" t="s">
         <v>55</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="H83" t="s">
         <v>56</v>
       </c>
       <c r="J83" s="5" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" t="s">
         <v>57</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="E84" t="s">
         <v>58</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="H84" t="s">
         <v>59</v>
       </c>
       <c r="J84" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -2201,4 +2261,1273 @@
   </colBreaks>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0A35FD9-8489-4515-ACCD-B4F393F3AAF3}">
+  <dimension ref="A1:M84"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="1">
+      <selection activeCell="E67" sqref="E67"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="4" max="4" width="10.15625" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="9.15625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="H1">
+        <v>0.45359237000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D3" s="10">
+        <v>43902</v>
+      </c>
+      <c r="F3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="H7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="H8">
+        <f>Imperial!H8</f>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9">
+        <f>Imperial!H9</f>
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H10">
+        <f>Imperial!H10</f>
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11">
+        <f>Imperial!H11</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" t="s">
+        <v>106</v>
+      </c>
+      <c r="H12">
+        <f>Imperial!H12</f>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13">
+        <f>Imperial!H13</f>
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="H14">
+        <f>Imperial!H14</f>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15">
+        <f>Imperial!H15</f>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16">
+        <f>Imperial!H16</f>
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D18">
+        <f>Imperial!D18*H1</f>
+        <v>1837.0490985000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>29</v>
+      </c>
+      <c r="J25" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="B26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D26" t="s">
+        <v>112</v>
+      </c>
+      <c r="E26" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" t="s">
+        <v>35</v>
+      </c>
+      <c r="G26" t="s">
+        <v>114</v>
+      </c>
+      <c r="H26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" t="s">
+        <v>115</v>
+      </c>
+      <c r="J26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28" s="11" t="str">
+        <f>Imperial!B28</f>
+        <v>19:17</v>
+      </c>
+      <c r="C28" s="11">
+        <f>B28-$B$28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="12">
+        <f>Imperial!D28*0.3048</f>
+        <v>1527.048</v>
+      </c>
+      <c r="E28" s="12">
+        <f>Imperial!E28/0.514444</f>
+        <v>484.01769677554796</v>
+      </c>
+      <c r="F28" t="str">
+        <f>Imperial!F28</f>
+        <v>1.7</v>
+      </c>
+      <c r="G28" s="12">
+        <f>Imperial!G28*$H$1</f>
+        <v>361.96671126000001</v>
+      </c>
+      <c r="H28" s="12">
+        <f>Imperial!H28*$H$1</f>
+        <v>368.77059681000003</v>
+      </c>
+      <c r="I28" s="12">
+        <f>Imperial!I28*$H$1</f>
+        <v>163.29325320000001</v>
+      </c>
+      <c r="J28">
+        <f>Imperial!J28</f>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29">
+        <v>2</v>
+      </c>
+      <c r="B29" s="11" t="str">
+        <f>Imperial!B29</f>
+        <v>21:37</v>
+      </c>
+      <c r="C29" s="11">
+        <f t="shared" ref="C29:C33" si="0">B29-$B$28</f>
+        <v>9.722222222222221E-2</v>
+      </c>
+      <c r="D29" s="12">
+        <f>Imperial!D29*0.3048</f>
+        <v>1530.096</v>
+      </c>
+      <c r="E29" s="12">
+        <f>Imperial!E29/0.514444</f>
+        <v>429.59000396544616</v>
+      </c>
+      <c r="F29" t="str">
+        <f>Imperial!F29</f>
+        <v>2.4</v>
+      </c>
+      <c r="G29" s="12">
+        <f>Imperial!G29*$H$1</f>
+        <v>305.26766501000003</v>
+      </c>
+      <c r="H29" s="12">
+        <f>Imperial!H29*$H$1</f>
+        <v>309.34999634000002</v>
+      </c>
+      <c r="I29" s="12">
+        <f>Imperial!I29*$H$1</f>
+        <v>186.88005644</v>
+      </c>
+      <c r="J29">
+        <f>Imperial!J29</f>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30">
+        <v>3</v>
+      </c>
+      <c r="B30" s="11" t="str">
+        <f>Imperial!B30</f>
+        <v>23:46</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="shared" si="0"/>
+        <v>0.18680555555555545</v>
+      </c>
+      <c r="D30" s="12">
+        <f>Imperial!D30*0.3048</f>
+        <v>1530.096</v>
+      </c>
+      <c r="E30" s="12">
+        <f>Imperial!E30/0.514444</f>
+        <v>373.21846498355507</v>
+      </c>
+      <c r="F30" t="str">
+        <f>Imperial!F30</f>
+        <v>3.6</v>
+      </c>
+      <c r="G30" s="12">
+        <f>Imperial!G30*$H$1</f>
+        <v>254.46531957000002</v>
+      </c>
+      <c r="H30" s="12">
+        <f>Imperial!H30*$H$1</f>
+        <v>262.62998223</v>
+      </c>
+      <c r="I30" s="12">
+        <f>Imperial!I30*$H$1</f>
+        <v>202.75578939000002</v>
+      </c>
+      <c r="J30">
+        <f>Imperial!J30</f>
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31">
+        <v>4</v>
+      </c>
+      <c r="B31" s="11" t="str">
+        <f>Imperial!B31</f>
+        <v>26:04</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="shared" si="0"/>
+        <v>0.28263888888888877</v>
+      </c>
+      <c r="D31" s="12">
+        <f>Imperial!D31*0.3048</f>
+        <v>1533.144</v>
+      </c>
+      <c r="E31" s="12">
+        <f>Imperial!E31/0.514444</f>
+        <v>316.84692600166392</v>
+      </c>
+      <c r="F31" t="str">
+        <f>Imperial!F31</f>
+        <v>5.4</v>
+      </c>
+      <c r="G31" s="12">
+        <f>Imperial!G31*$H$1</f>
+        <v>210.01326731</v>
+      </c>
+      <c r="H31" s="12">
+        <f>Imperial!H31*$H$1</f>
+        <v>219.53870708000002</v>
+      </c>
+      <c r="I31" s="12">
+        <f>Imperial!I31*$H$1</f>
+        <v>216.81715286000002</v>
+      </c>
+      <c r="J31">
+        <f>Imperial!J31</f>
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32">
+        <v>5</v>
+      </c>
+      <c r="B32" s="11" t="str">
+        <f>Imperial!B32</f>
+        <v>29:47</v>
+      </c>
+      <c r="C32" s="11">
+        <f t="shared" si="0"/>
+        <v>0.43750000000000011</v>
+      </c>
+      <c r="D32" s="12">
+        <f>Imperial!D32*0.3048</f>
+        <v>1530.096</v>
+      </c>
+      <c r="E32" s="12">
+        <f>Imperial!E32/0.514444</f>
+        <v>252.70000233261541</v>
+      </c>
+      <c r="F32" t="str">
+        <f>Imperial!F32</f>
+        <v>8.7</v>
+      </c>
+      <c r="G32" s="12">
+        <f>Imperial!G32*$H$1</f>
+        <v>200.94141991000001</v>
+      </c>
+      <c r="H32" s="12">
+        <f>Imperial!H32*$H$1</f>
+        <v>211.82763679000001</v>
+      </c>
+      <c r="I32" s="12">
+        <f>Imperial!I32*$H$1</f>
+        <v>241.31114084000001</v>
+      </c>
+      <c r="J32">
+        <f>Imperial!J32</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33">
+        <v>6</v>
+      </c>
+      <c r="B33" s="11" t="str">
+        <f>Imperial!B33</f>
+        <v>32:00</v>
+      </c>
+      <c r="C33" s="11">
+        <f t="shared" si="0"/>
+        <v>0.52986111111111101</v>
+      </c>
+      <c r="D33" s="12">
+        <f>Imperial!D33*0.3048</f>
+        <v>1557.528</v>
+      </c>
+      <c r="E33" s="12">
+        <f>Imperial!E33/0.514444</f>
+        <v>229.3738482711432</v>
+      </c>
+      <c r="F33" t="str">
+        <f>Imperial!F33</f>
+        <v>10.6</v>
+      </c>
+      <c r="G33" s="12">
+        <f>Imperial!G33*$H$1</f>
+        <v>215.00278338000001</v>
+      </c>
+      <c r="H33" s="12">
+        <f>Imperial!H33*$H$1</f>
+        <v>226.34259263000001</v>
+      </c>
+      <c r="I33" s="12">
+        <f>Imperial!I33*$H$1</f>
+        <v>258.54765090000001</v>
+      </c>
+      <c r="J33">
+        <f>Imperial!J33</f>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" t="s">
+        <v>22</v>
+      </c>
+      <c r="C56" t="s">
+        <v>23</v>
+      </c>
+      <c r="D56" t="s">
+        <v>24</v>
+      </c>
+      <c r="E56" t="s">
+        <v>25</v>
+      </c>
+      <c r="F56" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" t="s">
+        <v>44</v>
+      </c>
+      <c r="H56" t="s">
+        <v>45</v>
+      </c>
+      <c r="I56" t="s">
+        <v>116</v>
+      </c>
+      <c r="J56" t="s">
+        <v>27</v>
+      </c>
+      <c r="K56" t="s">
+        <v>28</v>
+      </c>
+      <c r="L56" t="s">
+        <v>29</v>
+      </c>
+      <c r="M56" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" t="s">
+        <v>31</v>
+      </c>
+      <c r="C57" t="s">
+        <v>32</v>
+      </c>
+      <c r="D57" t="s">
+        <v>112</v>
+      </c>
+      <c r="E57" t="s">
+        <v>113</v>
+      </c>
+      <c r="F57" t="s">
+        <v>35</v>
+      </c>
+      <c r="G57" t="s">
+        <v>35</v>
+      </c>
+      <c r="H57" t="s">
+        <v>35</v>
+      </c>
+      <c r="I57" t="s">
+        <v>47</v>
+      </c>
+      <c r="J57" t="s">
+        <v>114</v>
+      </c>
+      <c r="K57" t="s">
+        <v>114</v>
+      </c>
+      <c r="L57" t="s">
+        <v>115</v>
+      </c>
+      <c r="M57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59">
+        <v>1</v>
+      </c>
+      <c r="B59" s="11" t="str">
+        <f>Imperial!B59</f>
+        <v>37:19</v>
+      </c>
+      <c r="C59" s="11">
+        <f>B59-$B$28</f>
+        <v>0.75138888888888899</v>
+      </c>
+      <c r="D59" s="12">
+        <f>Imperial!D59*0.3048</f>
+        <v>1847.0880000000002</v>
+      </c>
+      <c r="E59" s="12">
+        <f>Imperial!E59/0.514444</f>
+        <v>312.95923365808522</v>
+      </c>
+      <c r="F59" t="str">
+        <f>Imperial!F59</f>
+        <v>5.3</v>
+      </c>
+      <c r="G59">
+        <f>Imperial!G59</f>
+        <v>0</v>
+      </c>
+      <c r="H59">
+        <f>Imperial!H59</f>
+        <v>2.8</v>
+      </c>
+      <c r="I59">
+        <f>Imperial!I59</f>
+        <v>0</v>
+      </c>
+      <c r="J59" s="12">
+        <f>Imperial!J59*$H$1</f>
+        <v>209.55967494000001</v>
+      </c>
+      <c r="K59" s="12">
+        <f>Imperial!K59*$H$1</f>
+        <v>220.44589182000001</v>
+      </c>
+      <c r="L59" s="12">
+        <f>Imperial!L59*$H$1</f>
+        <v>301.18533368000004</v>
+      </c>
+      <c r="M59">
+        <f>Imperial!J59</f>
+        <v>462</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60">
+        <v>2</v>
+      </c>
+      <c r="B60" s="11" t="str">
+        <f>Imperial!B60</f>
+        <v>39:11</v>
+      </c>
+      <c r="C60" s="11">
+        <f t="shared" ref="C60:C64" si="1">B60-$B$28</f>
+        <v>0.8291666666666665</v>
+      </c>
+      <c r="D60" s="12">
+        <f>Imperial!D60*0.3048</f>
+        <v>1935.48</v>
+      </c>
+      <c r="E60" s="12">
+        <f>Imperial!E60/0.514444</f>
+        <v>291.57692576840236</v>
+      </c>
+      <c r="F60" t="str">
+        <f>Imperial!F60</f>
+        <v>6.3</v>
+      </c>
+      <c r="G60">
+        <f>Imperial!G60</f>
+        <v>-0.4</v>
+      </c>
+      <c r="H60">
+        <f>Imperial!H60</f>
+        <v>2.8</v>
+      </c>
+      <c r="I60">
+        <f>Imperial!I60</f>
+        <v>-23</v>
+      </c>
+      <c r="J60" s="12">
+        <f>Imperial!J60*$H$1</f>
+        <v>207.74530546</v>
+      </c>
+      <c r="K60" s="12">
+        <f>Imperial!K60*$H$1</f>
+        <v>218.63152234</v>
+      </c>
+      <c r="L60" s="12">
+        <f>Imperial!L60*$H$1</f>
+        <v>314.79310478000002</v>
+      </c>
+      <c r="M60">
+        <f>Imperial!J60</f>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61" s="11" t="str">
+        <f>Imperial!B61</f>
+        <v>41:24</v>
+      </c>
+      <c r="C61" s="11">
+        <f t="shared" si="1"/>
+        <v>0.92152777777777761</v>
+      </c>
+      <c r="D61" s="12">
+        <f>Imperial!D61*0.3048</f>
+        <v>1996.44</v>
+      </c>
+      <c r="E61" s="12">
+        <f>Imperial!E61/0.514444</f>
+        <v>272.1384640505089</v>
+      </c>
+      <c r="F61" t="str">
+        <f>Imperial!F61</f>
+        <v>7.3</v>
+      </c>
+      <c r="G61">
+        <f>Imperial!G61</f>
+        <v>-0.9</v>
+      </c>
+      <c r="H61">
+        <f>Imperial!H61</f>
+        <v>2.8</v>
+      </c>
+      <c r="I61">
+        <f>Imperial!I61</f>
+        <v>-29</v>
+      </c>
+      <c r="J61" s="12">
+        <f>Imperial!J61*$H$1</f>
+        <v>205.93093598000002</v>
+      </c>
+      <c r="K61" s="12">
+        <f>Imperial!K61*$H$1</f>
+        <v>216.36356049</v>
+      </c>
+      <c r="L61" s="12">
+        <f>Imperial!L61*$H$1</f>
+        <v>331.12243010000003</v>
+      </c>
+      <c r="M61">
+        <f>Imperial!J61</f>
+        <v>454</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62">
+        <v>4</v>
+      </c>
+      <c r="B62" s="11" t="str">
+        <f>Imperial!B62</f>
+        <v>42:56</v>
+      </c>
+      <c r="C62" s="11">
+        <f t="shared" si="1"/>
+        <v>0.9854166666666665</v>
+      </c>
+      <c r="D62" s="12">
+        <f>Imperial!D62*0.3048</f>
+        <v>2097.0239999999999</v>
+      </c>
+      <c r="E62" s="12">
+        <f>Imperial!E62/0.514444</f>
+        <v>252.70000233261541</v>
+      </c>
+      <c r="F62" t="str">
+        <f>Imperial!F62</f>
+        <v>8.5</v>
+      </c>
+      <c r="G62">
+        <f>Imperial!G62</f>
+        <v>-1.5</v>
+      </c>
+      <c r="H62">
+        <f>Imperial!H62</f>
+        <v>2.8</v>
+      </c>
+      <c r="I62">
+        <f>Imperial!I62</f>
+        <v>-46</v>
+      </c>
+      <c r="J62" s="12">
+        <f>Imperial!J62*$H$1</f>
+        <v>203.66297413000001</v>
+      </c>
+      <c r="K62" s="12">
+        <f>Imperial!K62*$H$1</f>
+        <v>214.54919101000002</v>
+      </c>
+      <c r="L62" s="12">
+        <f>Imperial!L62*$H$1</f>
+        <v>342.46223935</v>
+      </c>
+      <c r="M62">
+        <f>Imperial!J62</f>
+        <v>449</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63">
+        <v>5</v>
+      </c>
+      <c r="B63" s="11" t="str">
+        <f>Imperial!B63</f>
+        <v>45:41</v>
+      </c>
+      <c r="C63" s="11">
+        <f t="shared" si="1"/>
+        <v>1.0999999999999996</v>
+      </c>
+      <c r="D63" s="12">
+        <f>Imperial!D63*0.3048</f>
+        <v>1877.568</v>
+      </c>
+      <c r="E63" s="12">
+        <f>Imperial!E63/0.514444</f>
+        <v>336.28538771955743</v>
+      </c>
+      <c r="F63" t="str">
+        <f>Imperial!F63</f>
+        <v>4.5</v>
+      </c>
+      <c r="G63">
+        <f>Imperial!G63</f>
+        <v>0.4</v>
+      </c>
+      <c r="H63">
+        <f>Imperial!H63</f>
+        <v>2.8</v>
+      </c>
+      <c r="I63">
+        <f>Imperial!I63</f>
+        <v>26</v>
+      </c>
+      <c r="J63" s="12">
+        <f>Imperial!J63*$H$1</f>
+        <v>210.92045205000002</v>
+      </c>
+      <c r="K63" s="12">
+        <f>Imperial!K63*$H$1</f>
+        <v>221.80666893</v>
+      </c>
+      <c r="L63" s="12">
+        <f>Imperial!L63*$H$1</f>
+        <v>361.96671126000001</v>
+      </c>
+      <c r="M63">
+        <f>Imperial!J63</f>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64">
+        <v>6</v>
+      </c>
+      <c r="B64" s="11" t="str">
+        <f>Imperial!B64</f>
+        <v>47:20</v>
+      </c>
+      <c r="C64" s="11">
+        <f t="shared" si="1"/>
+        <v>1.1687500000000002</v>
+      </c>
+      <c r="D64" s="12">
+        <f>Imperial!D64*0.3048</f>
+        <v>1770.8880000000001</v>
+      </c>
+      <c r="E64" s="12">
+        <f>Imperial!E64/0.514444</f>
+        <v>347.94846475029351</v>
+      </c>
+      <c r="F64" t="str">
+        <f>Imperial!F64</f>
+        <v>4.1</v>
+      </c>
+      <c r="G64">
+        <f>Imperial!G64</f>
+        <v>0.6</v>
+      </c>
+      <c r="H64">
+        <f>Imperial!H64</f>
+        <v>2.8</v>
+      </c>
+      <c r="I64">
+        <f>Imperial!I64</f>
+        <v>40</v>
+      </c>
+      <c r="J64" s="12">
+        <f>Imperial!J64*$H$1</f>
+        <v>214.09559864000002</v>
+      </c>
+      <c r="K64" s="12">
+        <f>Imperial!K64*$H$1</f>
+        <v>224.98181552</v>
+      </c>
+      <c r="L64" s="12">
+        <f>Imperial!L64*$H$1</f>
+        <v>374.21370525000003</v>
+      </c>
+      <c r="M64">
+        <f>Imperial!J64</f>
+        <v>472</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65">
+        <v>7</v>
+      </c>
+      <c r="B65" s="11" t="str">
+        <f>Imperial!B65</f>
+        <v>48:40</v>
+      </c>
+      <c r="C65" s="11">
+        <f t="shared" ref="C65" si="2">B65-$B$28</f>
+        <v>1.2243055555555555</v>
+      </c>
+      <c r="D65" s="12">
+        <f>Imperial!D65*0.3048</f>
+        <v>1618.4880000000001</v>
+      </c>
+      <c r="E65" s="12">
+        <f>Imperial!E65/0.514444</f>
+        <v>373.21846498355507</v>
+      </c>
+      <c r="F65" t="str">
+        <f>Imperial!F65</f>
+        <v>3.4</v>
+      </c>
+      <c r="G65">
+        <f>Imperial!G65</f>
+        <v>1</v>
+      </c>
+      <c r="H65">
+        <f>Imperial!H65</f>
+        <v>2.8</v>
+      </c>
+      <c r="I65">
+        <f>Imperial!I65</f>
+        <v>83</v>
+      </c>
+      <c r="J65" s="12">
+        <f>Imperial!J65*$H$1</f>
+        <v>218.63152234</v>
+      </c>
+      <c r="K65" s="12">
+        <f>Imperial!K65*$H$1</f>
+        <v>229.06414685000001</v>
+      </c>
+      <c r="L65" s="12">
+        <f>Imperial!L65*$H$1</f>
+        <v>383.73914502000002</v>
+      </c>
+      <c r="M65">
+        <f>Imperial!J65</f>
+        <v>482</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71">
+        <v>288</v>
+      </c>
+      <c r="E71" t="s">
+        <v>51</v>
+      </c>
+      <c r="H71">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" t="s">
+        <v>21</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
+        <v>117</v>
+      </c>
+      <c r="D73" t="s">
+        <v>24</v>
+      </c>
+      <c r="E73" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73" t="s">
+        <v>26</v>
+      </c>
+      <c r="G73" t="s">
+        <v>44</v>
+      </c>
+      <c r="H73" t="s">
+        <v>45</v>
+      </c>
+      <c r="I73" t="s">
+        <v>46</v>
+      </c>
+      <c r="J73" t="s">
+        <v>27</v>
+      </c>
+      <c r="K73" t="s">
+        <v>28</v>
+      </c>
+      <c r="L73" t="s">
+        <v>29</v>
+      </c>
+      <c r="M73" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" t="str">
+        <f>Imperial!B74</f>
+        <v>[hh:mm]</v>
+      </c>
+      <c r="C74" t="str">
+        <f>Imperial!C74</f>
+        <v>[sec]</v>
+      </c>
+      <c r="D74" t="str">
+        <f>Imperial!D74</f>
+        <v>[ft]</v>
+      </c>
+      <c r="E74" t="str">
+        <f>Imperial!E74</f>
+        <v>[kts]</v>
+      </c>
+      <c r="F74" t="str">
+        <f>Imperial!F74</f>
+        <v>[deg]</v>
+      </c>
+      <c r="G74" t="str">
+        <f>Imperial!G74</f>
+        <v>[deg]</v>
+      </c>
+      <c r="H74" t="str">
+        <f>Imperial!H74</f>
+        <v>[deg]</v>
+      </c>
+      <c r="I74" t="str">
+        <f>Imperial!I74</f>
+        <v>[N]</v>
+      </c>
+      <c r="J74" t="str">
+        <f>Imperial!J74</f>
+        <v>[lbs/hr]</v>
+      </c>
+      <c r="K74" t="str">
+        <f>Imperial!K74</f>
+        <v>[lbs/hr]</v>
+      </c>
+      <c r="L74" t="str">
+        <f>Imperial!L74</f>
+        <v>[lbs]</v>
+      </c>
+      <c r="M74" t="str">
+        <f>Imperial!M74</f>
+        <v>[°C]</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75">
+        <v>1</v>
+      </c>
+      <c r="B75" t="str">
+        <f>Imperial!B75</f>
+        <v>51:02</v>
+      </c>
+      <c r="C75">
+        <f>Imperial!C75</f>
+        <v>0</v>
+      </c>
+      <c r="D75">
+        <f>Imperial!D75</f>
+        <v>5730</v>
+      </c>
+      <c r="E75">
+        <f>Imperial!E75</f>
+        <v>161</v>
+      </c>
+      <c r="F75" t="str">
+        <f>Imperial!F75</f>
+        <v>5.3</v>
+      </c>
+      <c r="G75">
+        <f>Imperial!G75</f>
+        <v>0</v>
+      </c>
+      <c r="H75" t="str">
+        <f>Imperial!H75</f>
+        <v>2.8</v>
+      </c>
+      <c r="I75">
+        <f>Imperial!I75</f>
+        <v>0</v>
+      </c>
+      <c r="J75">
+        <f>Imperial!J75</f>
+        <v>471</v>
+      </c>
+      <c r="K75">
+        <f>Imperial!K75</f>
+        <v>493</v>
+      </c>
+      <c r="L75">
+        <f>Imperial!L75</f>
+        <v>881</v>
+      </c>
+      <c r="M75" t="str">
+        <f>Imperial!M75</f>
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76">
+        <v>2</v>
+      </c>
+      <c r="B76" t="str">
+        <f>Imperial!B76</f>
+        <v>52:46</v>
+      </c>
+      <c r="C76">
+        <f>Imperial!C76</f>
+        <v>0</v>
+      </c>
+      <c r="D76">
+        <f>Imperial!D76</f>
+        <v>5790</v>
+      </c>
+      <c r="E76">
+        <f>Imperial!E76</f>
+        <v>161</v>
+      </c>
+      <c r="F76">
+        <f>Imperial!F76</f>
+        <v>5.3</v>
+      </c>
+      <c r="G76">
+        <f>Imperial!G76</f>
+        <v>-0.5</v>
+      </c>
+      <c r="H76" t="str">
+        <f>Imperial!H76</f>
+        <v>2.8</v>
+      </c>
+      <c r="I76">
+        <f>Imperial!I76</f>
+        <v>-30</v>
+      </c>
+      <c r="J76">
+        <f>Imperial!J76</f>
+        <v>468</v>
+      </c>
+      <c r="K76">
+        <f>Imperial!K76</f>
+        <v>490</v>
+      </c>
+      <c r="L76">
+        <f>Imperial!L76</f>
+        <v>910</v>
+      </c>
+      <c r="M76" t="str">
+        <f>Imperial!M76</f>
+        <v>5.0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="C77" t="str">
+        <f>Imperial!C77</f>
+        <v>* ET = Elapsed Time</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="9" t="str">
+        <f>Imperial!A79</f>
+        <v>Eigenmotions</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D81" t="str">
+        <f>Imperial!D81</f>
+        <v>Time</v>
+      </c>
+      <c r="G81" t="str">
+        <f>Imperial!G81</f>
+        <v>Time</v>
+      </c>
+      <c r="I81">
+        <f>Imperial!I81</f>
+        <v>0</v>
+      </c>
+      <c r="J81" t="str">
+        <f>Imperial!J81</f>
+        <v>Time</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="D82" t="str">
+        <f>Imperial!D82</f>
+        <v>[hh:mm]</v>
+      </c>
+      <c r="G82" t="str">
+        <f>Imperial!G82</f>
+        <v>[hh:mm]</v>
+      </c>
+      <c r="I82">
+        <f>Imperial!I82</f>
+        <v>0</v>
+      </c>
+      <c r="J82" t="str">
+        <f>Imperial!J82</f>
+        <v>[hh:mm]</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" t="str">
+        <f>Imperial!A83</f>
+        <v>Phugoid</v>
+      </c>
+      <c r="D83" t="str">
+        <f>Imperial!D83</f>
+        <v>53:57</v>
+      </c>
+      <c r="E83" t="str">
+        <f>Imperial!E83</f>
+        <v>Dutch Roll</v>
+      </c>
+      <c r="G83" t="str">
+        <f>Imperial!G83</f>
+        <v>1:01:57</v>
+      </c>
+      <c r="H83" t="str">
+        <f>Imperial!H83</f>
+        <v>Aper. Roll</v>
+      </c>
+      <c r="I83">
+        <f>Imperial!I83</f>
+        <v>0</v>
+      </c>
+      <c r="J83" t="str">
+        <f>Imperial!J83</f>
+        <v>59:10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" t="str">
+        <f>Imperial!A84</f>
+        <v>Short period</v>
+      </c>
+      <c r="D84" t="str">
+        <f>Imperial!D84</f>
+        <v>1:00:35</v>
+      </c>
+      <c r="E84" t="str">
+        <f>Imperial!E84</f>
+        <v>Dutch Roll YD</v>
+      </c>
+      <c r="G84" t="str">
+        <f>Imperial!G84</f>
+        <v>1:02:47</v>
+      </c>
+      <c r="H84" t="str">
+        <f>Imperial!H84</f>
+        <v>Spiral</v>
+      </c>
+      <c r="I84">
+        <f>Imperial!I84</f>
+        <v>0</v>
+      </c>
+      <c r="J84" t="str">
+        <f>Imperial!J84</f>
+        <v>1:05:20</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ReferenceData/ReferenceDataSheeet.xlsx
+++ b/ReferenceData/ReferenceDataSheeet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mitch\Documents\TU Delft\BSc-3\AE3212-II Simulation, Verification &amp; Validation\Aerodynamics\31\B31\ReferenceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23E5DDE8-691C-4E8F-B763-FD1EA77B6456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF6B6FB9-5FAD-44E5-8780-49F31FD5C216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38290" yWindow="-5600" windowWidth="38620" windowHeight="21360" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Imperial" sheetId="1" r:id="rId1"/>
     <sheet name="Metric" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2" sheetId="4" r:id="rId4"/>
+    <sheet name="thrust" sheetId="4" r:id="rId4"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId5"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="513" uniqueCount="185">
   <si>
     <t>Post-Flight Data Sheet AE3202</t>
   </si>
@@ -745,6 +745,12 @@
   <si>
     <t>Cma</t>
   </si>
+  <si>
+    <t>Cd</t>
+  </si>
+  <si>
+    <t>Cl2</t>
+  </si>
 </sst>
 </file>
 
@@ -758,7 +764,7 @@
     <numFmt numFmtId="168" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
     <numFmt numFmtId="169" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -860,6 +866,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="12">
@@ -1063,9 +1076,7 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="21">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1228,22 +1239,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.6385907086334454E-2</c:v>
+                  <c:v>2.5324765030919492E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7309925702649614E-2</c:v>
+                  <c:v>2.6197968421421636E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9524253182379983E-2</c:v>
+                  <c:v>2.8303754543725274E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2345638253647377E-2</c:v>
+                  <c:v>3.1032500365259577E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2225141904757445E-2</c:v>
+                  <c:v>5.0178507306054103E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4071687748360551E-2</c:v>
+                  <c:v>7.100917707904697E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1255,22 +1266,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.22718691754430112</c:v>
+                  <c:v>0.2179167925817676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28760387726174819</c:v>
+                  <c:v>0.27582563875525951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38056360649880344</c:v>
+                  <c:v>0.36508957561230709</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52839553148120866</c:v>
+                  <c:v>0.50679345108629925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83119612103402041</c:v>
+                  <c:v>0.79791217370818568</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0103794258647087</c:v>
+                  <c:v>0.96865725604009023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1718,50 +1729,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="nl-NL"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$Q$55:$Q$61</c:f>
@@ -1799,25 +1766,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-1.5478996356364829</c:v>
+                  <c:v>-1.5453567813156015</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.94205487338491756</c:v>
+                  <c:v>-0.93992989213183453</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.43833890662217717</c:v>
+                  <c:v>-0.43649459865001994</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-3.3964054749609188E-2</c:v>
+                  <c:v>-3.2393571929929234E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.37818672339882781</c:v>
+                  <c:v>0.37929299208234274</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.58132904213873859</c:v>
+                  <c:v>0.5822254445635161</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.98530723398493258</c:v>
+                  <c:v>0.98592560126790663</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1844,6 +1811,7 @@
         <c:axId val="755222975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -2330,22 +2298,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.22718691754430112</c:v>
+                  <c:v>0.2179167925817676</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.28760387726174819</c:v>
+                  <c:v>0.27582563875525951</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.38056360649880344</c:v>
+                  <c:v>0.36508957561230709</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.52839553148120866</c:v>
+                  <c:v>0.50679345108629925</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.83119612103402041</c:v>
+                  <c:v>0.79791217370818568</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0103794258647087</c:v>
+                  <c:v>0.96865725604009023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2780,22 +2748,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.6385907086334454E-2</c:v>
+                  <c:v>2.5324765030919492E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7309925702649614E-2</c:v>
+                  <c:v>2.6197968421421636E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9524253182379983E-2</c:v>
+                  <c:v>2.8303754543725274E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2345638253647377E-2</c:v>
+                  <c:v>3.1032500365259577E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2225141904757445E-2</c:v>
+                  <c:v>5.0178507306054103E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4071687748360551E-2</c:v>
+                  <c:v>7.100917707904697E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3241,22 +3209,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>2.6385907086334454E-2</c:v>
+                  <c:v>2.5324765030919492E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7309925702649614E-2</c:v>
+                  <c:v>2.6197968421421636E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9524253182379983E-2</c:v>
+                  <c:v>2.8303754543725274E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2345638253647377E-2</c:v>
+                  <c:v>3.1032500365259577E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5.2225141904757445E-2</c:v>
+                  <c:v>5.0178507306054103E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.4071687748360551E-2</c:v>
+                  <c:v>7.100917707904697E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3268,22 +3236,22 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5.1613895503281076E-2</c:v>
+                  <c:v>4.7487728489125122E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.2715990215990715E-2</c:v>
+                  <c:v>7.6079782994746908E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.14482865859137611</c:v>
+                  <c:v>0.13329039822077449</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.27920183768930895</c:v>
+                  <c:v>0.25683960206396117</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.69088699162200196</c:v>
+                  <c:v>0.63666383695172191</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0208665842106985</c:v>
+                  <c:v>0.9382968796791169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3745,25 +3713,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.3309761752304984E-2</c:v>
+                  <c:v>2.2328735169103324E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7429200022694354E-2</c:v>
+                  <c:v>2.6112309823875652E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9486096397840958E-2</c:v>
+                  <c:v>2.7990697717466539E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4501011343481935E-2</c:v>
+                  <c:v>3.2905699889181891E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0817922359437674E-2</c:v>
+                  <c:v>3.8854360373795152E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7861466303310674E-2</c:v>
+                  <c:v>4.544308502063011E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6880054117986176E-2</c:v>
+                  <c:v>5.3860455128057809E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3775,25 +3743,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.37094400275641126</c:v>
+                  <c:v>0.35503091667658349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43009892069756767</c:v>
+                  <c:v>0.40964911505987472</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46325453729934102</c:v>
+                  <c:v>0.43974709224861286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53841729762787893</c:v>
+                  <c:v>0.51317972021993852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62106308050824466</c:v>
+                  <c:v>0.59086559125904159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71375834899749269</c:v>
+                  <c:v>0.67765263817216348</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8297872247663739</c:v>
+                  <c:v>0.78607033173851326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4273,25 +4241,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.37094400275641126</c:v>
+                  <c:v>0.35503091667658349</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.43009892069756767</c:v>
+                  <c:v>0.40964911505987472</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.46325453729934102</c:v>
+                  <c:v>0.43974709224861286</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.53841729762787893</c:v>
+                  <c:v>0.51317972021993852</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.62106308050824466</c:v>
+                  <c:v>0.59086559125904159</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71375834899749269</c:v>
+                  <c:v>0.67765263817216348</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.8297872247663739</c:v>
+                  <c:v>0.78607033173851326</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4739,25 +4707,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>2.3309761752304984E-2</c:v>
+                  <c:v>2.2328735169103324E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.7429200022694354E-2</c:v>
+                  <c:v>2.6112309823875652E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.9486096397840958E-2</c:v>
+                  <c:v>2.7990697717466539E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.4501011343481935E-2</c:v>
+                  <c:v>3.2905699889181891E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.0817922359437674E-2</c:v>
+                  <c:v>3.8854360373795152E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.7861466303310674E-2</c:v>
+                  <c:v>4.544308502063011E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5.6880054117986176E-2</c:v>
+                  <c:v>5.3860455128057809E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5154,50 +5122,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="nl-NL"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$L$55:$L$61</c:f>
@@ -5205,25 +5129,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>62.989354367399237</c:v>
+                  <c:v>64.71721597855985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.916442361425439</c:v>
+                  <c:v>69.702276465379043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.80859868864286</c:v>
+                  <c:v>74.645937892849673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.197168394219815</c:v>
+                  <c:v>80.096914450360671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.30254548668016</c:v>
+                  <c:v>86.526480866531131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.491598774391591</c:v>
+                  <c:v>89.648807815569668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.209858613900337</c:v>
+                  <c:v>96.298038742252388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5235,25 +5159,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>-2.7015945132277178E-2</c:v>
+                  <c:v>-2.6971563951979232E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.6441959275025109E-2</c:v>
+                  <c:v>-1.6404871355615656E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-7.6504571601489673E-3</c:v>
+                  <c:v>-7.6182679136140427E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-5.9278458270829856E-4</c:v>
+                  <c:v>-5.6537448665887899E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6.6006035106386252E-3</c:v>
+                  <c:v>6.6199115415776629E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0146105822785845E-2</c:v>
+                  <c:v>1.0161750996521076E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.7196855376755242E-2</c:v>
+                  <c:v>1.7207647921829751E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5280,6 +5204,7 @@
         <c:axId val="755222975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -5297,6 +5222,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5453,6 +5392,8 @@
         <c:crossAx val="661598095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="661598095"/>
@@ -5703,25 +5644,25 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>62.989354367399237</c:v>
+                  <c:v>64.71721597855985</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>67.916442361425439</c:v>
+                  <c:v>69.702276465379043</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72.80859868864286</c:v>
+                  <c:v>74.645937892849673</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>78.197168394219815</c:v>
+                  <c:v>80.096914450360671</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>84.30254548668016</c:v>
+                  <c:v>86.526480866531131</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>87.491598774391591</c:v>
+                  <c:v>89.648807815569668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>94.209858613900337</c:v>
+                  <c:v>96.298038742252388</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5778,6 +5719,7 @@
         <c:axId val="755222975"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="60"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="t"/>
@@ -5795,6 +5737,20 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -5951,6 +5907,8 @@
         <c:crossAx val="661598095"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="10"/>
+        <c:minorUnit val="5"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="661598095"/>
@@ -12062,16 +12020,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>463550</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>463645</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>95435</xdr:rowOff>
+      <xdr:col>56</xdr:col>
+      <xdr:colOff>284575</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>177985</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12145,6 +12103,10 @@
     <sheetNames>
       <sheetName val="Imperial Units"/>
       <sheetName val="Metric Units"/>
+      <sheetName val="statmeas3"/>
+      <sheetName val="statmeas1"/>
+      <sheetName val="statmeas2"/>
+      <sheetName val="thrust"/>
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0">
@@ -12191,7 +12153,11 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="5" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -12486,8 +12452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView topLeftCell="A34" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7890625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15057,10 +15023,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA67EFCC-8D08-439C-8AD2-0FB953D50BD8}">
-  <dimension ref="A1:AO85"/>
+  <dimension ref="A1:BS85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AK35" sqref="AK35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="V62" sqref="V62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -15078,7 +15044,7 @@
     <col min="39" max="39" width="7.5234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="13" t="s">
         <v>118</v>
       </c>
@@ -15096,7 +15062,7 @@
       </c>
       <c r="AI1" s="17"/>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="J2" t="s">
         <v>120</v>
       </c>
@@ -15123,7 +15089,7 @@
       </c>
       <c r="AI2" s="21"/>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>123</v>
       </c>
@@ -15145,7 +15111,7 @@
       <c r="AH3" s="21"/>
       <c r="AI3" s="21"/>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>125</v>
       </c>
@@ -15175,7 +15141,7 @@
       </c>
       <c r="AI4" s="21"/>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="N5" s="14" t="s">
         <v>129</v>
       </c>
@@ -15189,7 +15155,7 @@
       <c r="AH5" s="21"/>
       <c r="AI5" s="21"/>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -15213,7 +15179,7 @@
       </c>
       <c r="AI6" s="21"/>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="C7" t="s">
         <v>6</v>
       </c>
@@ -15235,7 +15201,7 @@
       </c>
       <c r="AI7" s="21"/>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -15260,7 +15226,7 @@
       </c>
       <c r="AI8" s="21"/>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -15285,7 +15251,7 @@
       </c>
       <c r="AI9" s="21"/>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" t="s">
         <v>104</v>
       </c>
@@ -15303,8 +15269,12 @@
         <v>598.20564999999999</v>
       </c>
       <c r="AI10" s="21"/>
-    </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+      <c r="BG10">
+        <f>0.0842*180/PI()</f>
+        <v>4.8243046350015311</v>
+      </c>
+    </row>
+    <row r="11" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -15323,7 +15293,7 @@
       </c>
       <c r="AI11" s="21"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -15342,7 +15312,7 @@
       </c>
       <c r="AI12" s="21"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -15361,7 +15331,7 @@
       </c>
       <c r="AI13" s="21"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -15380,7 +15350,7 @@
       </c>
       <c r="AI14" s="21"/>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -15393,7 +15363,7 @@
       <c r="AH15" s="23"/>
       <c r="AI15" s="23"/>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:59" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -15414,35 +15384,35 @@
       </c>
       <c r="AI16" s="26"/>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="AE17" s="19"/>
       <c r="AF17" s="20"/>
       <c r="AG17" s="19"/>
       <c r="AH17" s="21"/>
       <c r="AI17" s="21"/>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="AE18" s="19"/>
       <c r="AF18" s="20"/>
       <c r="AG18" s="19"/>
       <c r="AH18" s="21"/>
       <c r="AI18" s="21"/>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="AE19" s="19"/>
       <c r="AF19" s="20"/>
       <c r="AG19" s="19"/>
       <c r="AH19" s="21"/>
       <c r="AI19" s="21"/>
     </row>
-    <row r="20" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="AE20" s="19"/>
       <c r="AF20" s="20"/>
       <c r="AG20" s="19"/>
       <c r="AH20" s="21"/>
       <c r="AI20" s="21"/>
     </row>
-    <row r="21" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="13" t="s">
         <v>136</v>
       </c>
@@ -15452,14 +15422,14 @@
       <c r="AH21" s="21"/>
       <c r="AI21" s="21"/>
     </row>
-    <row r="22" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="AE22" s="19"/>
       <c r="AF22" s="20"/>
       <c r="AG22" s="19"/>
       <c r="AH22" s="21"/>
       <c r="AI22" s="21"/>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" t="s">
         <v>19</v>
       </c>
@@ -15472,14 +15442,14 @@
       <c r="AH23" s="21"/>
       <c r="AI23" s="21"/>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="AE24" s="19"/>
       <c r="AF24" s="20"/>
       <c r="AG24" s="19"/>
       <c r="AH24" s="21"/>
       <c r="AI24" s="21"/>
     </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" t="s">
         <v>21</v>
       </c>
@@ -15546,7 +15516,7 @@
       <c r="AH25" s="21"/>
       <c r="AI25" s="21"/>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" t="s">
         <v>42</v>
       </c>
@@ -15607,7 +15577,7 @@
       <c r="AH26" s="21"/>
       <c r="AI26" s="21"/>
     </row>
-    <row r="27" spans="1:41" ht="17.7" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:71" ht="17.7" x14ac:dyDescent="0.75">
       <c r="AE27" s="19"/>
       <c r="AF27" s="20"/>
       <c r="AG27" s="19"/>
@@ -15629,7 +15599,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>1</v>
       </c>
@@ -15641,7 +15611,7 @@
         <f>B28-$B$28</f>
         <v>0</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="29">
         <f>Imperial!D28*0.3048</f>
         <v>1527.048</v>
       </c>
@@ -15692,19 +15662,20 @@
         <v>136.00125168909364</v>
       </c>
       <c r="T28" s="29">
-        <f t="shared" ref="T28:T33" si="4">S28*SQRT(E28/101325)</f>
-        <v>124.03080214108566</v>
+        <f>S28*SQRT(E28/287/Q28/1.225)</f>
+        <v>126.64144665062862</v>
       </c>
       <c r="U28" s="29">
-        <f t="shared" ref="U28:U33" si="5">288.15-0.00649*D28</f>
+        <f t="shared" ref="U28:U33" si="4">288.15-0.00649*D28</f>
         <v>278.23945848</v>
       </c>
       <c r="V28" s="33">
-        <f t="shared" ref="V28:V33" si="6">Q28-U28</f>
+        <f t="shared" ref="V28:V33" si="5">Q28-U28</f>
         <v>-1.7961983809458388</v>
       </c>
       <c r="W28">
-        <v>7458.62</v>
+        <f>thrust!O1</f>
+        <v>7463.19</v>
       </c>
       <c r="AE28" s="19"/>
       <c r="AF28" s="20" t="s">
@@ -15721,27 +15692,34 @@
       <c r="AI28" s="21"/>
       <c r="AJ28" s="34">
         <f>2*AH28/(1.225*$T28^2*$O$2)</f>
-        <v>0.22718691754430112</v>
+        <v>0.2179167925817676</v>
       </c>
       <c r="AK28" s="34">
-        <f t="shared" ref="AK28:AK33" si="7">2*W28/(1.225*$T28^2*$O$2)</f>
-        <v>2.6385907086334454E-2</v>
+        <f t="shared" ref="AK28:AK33" si="6">2*W28/(1.225*$T28^2*$O$2)</f>
+        <v>2.5324765030919492E-2</v>
       </c>
       <c r="AL28" s="35">
-        <f t="shared" ref="AL28:AL33" si="8">I28</f>
+        <f t="shared" ref="AL28:AL33" si="7">I28</f>
         <v>1.7</v>
       </c>
       <c r="AM28" s="36">
-        <f t="shared" ref="AM28:AM33" si="9">AJ28^2</f>
-        <v>5.1613895503281076E-2</v>
+        <f>AJ28^2</f>
+        <v>4.7487728489125122E-2</v>
       </c>
       <c r="AN28" s="34">
         <f>AM28/(AK28-$AK$35)/(PI()*$O$5)</f>
-        <v>0.72797347352407005</v>
+        <v>0.39826369530686034</v>
       </c>
       <c r="AO28" s="37"/>
-    </row>
-    <row r="29" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="BR28">
+        <v>1</v>
+      </c>
+      <c r="BS28">
+        <f>19.512*BR28-0.4065</f>
+        <v>19.105499999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>2</v>
       </c>
@@ -15750,7 +15728,7 @@
         <v>21:37</v>
       </c>
       <c r="C29" s="11">
-        <f t="shared" ref="C29:C33" si="10">B29-$B$28</f>
+        <f t="shared" ref="C29:C33" si="8">B29-$B$28</f>
         <v>9.722222222222221E-2</v>
       </c>
       <c r="D29" s="12">
@@ -15758,11 +15736,11 @@
         <v>1530.096</v>
       </c>
       <c r="E29" s="29">
-        <f t="shared" ref="E29:E33" si="11">101325*(1+((-0.0065*D29)/288.15))^(-9.81/(-0.0065*287))</f>
+        <f t="shared" ref="E29:E33" si="9">101325*(1+((-0.0065*D29)/288.15))^(-9.81/(-0.0065*287))</f>
         <v>84236.003208777372</v>
       </c>
       <c r="F29" s="29">
-        <f t="shared" ref="F29:F33" si="12">1.225*(1+((-0.00649*D29)/288.15))^(-9.80665/(-0.00649*287))</f>
+        <f t="shared" ref="F29:F33" si="10">1.225*(1+((-0.00649*D29)/288.15))^(-9.80665/(-0.00649*287))</f>
         <v>1.0184666554384738</v>
       </c>
       <c r="G29" s="29">
@@ -15796,34 +15774,35 @@
         <v>276.40030821235558</v>
       </c>
       <c r="R29" s="54">
-        <f t="shared" ref="R29:R33" si="13">SQRT(2/0.4*((1+101325/E29*((1+0.4/2.8*1.225/101325*H29^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
+        <f t="shared" ref="R29:R33" si="11">SQRT(2/0.4*((1+101325/E29*((1+0.4/2.8*1.225/101325*H29^2)^(1.4/0.4)-1))^(0.4/1.4)-1))</f>
         <v>0.36213917876500906</v>
       </c>
       <c r="S29" s="29">
-        <f t="shared" ref="S29:S33" si="14">R29*SQRT(1.4*287*Q29)</f>
+        <f t="shared" ref="S29:S33" si="12">R29*SQRT(1.4*287*Q29)</f>
         <v>120.68401220284973</v>
       </c>
       <c r="T29" s="29">
+        <f t="shared" ref="T29:T33" si="13">S29*SQRT(E29/287/Q29/1.225)</f>
+        <v>112.362233171829</v>
+      </c>
+      <c r="U29" s="29">
         <f t="shared" si="4"/>
-        <v>110.03739744788304</v>
-      </c>
-      <c r="U29" s="29">
+        <v>278.21967695999996</v>
+      </c>
+      <c r="V29" s="33">
         <f t="shared" si="5"/>
-        <v>278.21967695999996</v>
-      </c>
-      <c r="V29" s="33">
-        <f t="shared" si="6"/>
         <v>-1.8193687476443756</v>
       </c>
       <c r="W29">
-        <v>6076.15</v>
+        <f>thrust!O2</f>
+        <v>6077.65</v>
       </c>
       <c r="AE29" s="19"/>
       <c r="AF29" s="20" t="s">
         <v>154</v>
       </c>
       <c r="AG29" s="21">
-        <f t="shared" ref="AG29:AG33" si="15">$AG$16-O29</f>
+        <f t="shared" ref="AG29:AG33" si="14">$AG$16-O29</f>
         <v>6525.0227316099999</v>
       </c>
       <c r="AH29" s="21">
@@ -15832,28 +15811,28 @@
       </c>
       <c r="AI29" s="21"/>
       <c r="AJ29" s="34">
-        <f t="shared" ref="AJ29:AJ33" si="16">2*AH29/(1.225*$T29^2*$O$2)</f>
-        <v>0.28760387726174819</v>
+        <f t="shared" ref="AJ29:AJ33" si="15">2*AH29/(1.225*$T29^2*$O$2)</f>
+        <v>0.27582563875525951</v>
       </c>
       <c r="AK29" s="34">
+        <f t="shared" si="6"/>
+        <v>2.6197968421421636E-2</v>
+      </c>
+      <c r="AL29" s="35">
         <f t="shared" si="7"/>
-        <v>2.7309925702649614E-2</v>
-      </c>
-      <c r="AL29" s="35">
-        <f t="shared" si="8"/>
         <v>2.4</v>
       </c>
       <c r="AM29" s="36">
-        <f t="shared" si="9"/>
-        <v>8.2715990215990715E-2</v>
+        <f>AJ29^2</f>
+        <v>7.6079782994746908E-2</v>
       </c>
       <c r="AN29" s="34">
-        <f t="shared" ref="AN28:AN33" si="17">AM29/(AK29-$AK$35)/(PI()*$O$5)</f>
-        <v>0.86706840949568809</v>
+        <f t="shared" ref="AN29:AN33" si="16">AM29/(AK29-$AK$35)/(PI()*$O$5)</f>
+        <v>0.53431969531619705</v>
       </c>
       <c r="AO29" s="37"/>
     </row>
-    <row r="30" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>3</v>
       </c>
@@ -15862,7 +15841,7 @@
         <v>23:46</v>
       </c>
       <c r="C30" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.18680555555555545</v>
       </c>
       <c r="D30" s="12">
@@ -15870,11 +15849,11 @@
         <v>1530.096</v>
       </c>
       <c r="E30" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>84236.003208777372</v>
       </c>
       <c r="F30" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.0184666554384738</v>
       </c>
       <c r="G30" s="29">
@@ -15908,34 +15887,35 @@
         <v>276.48451034767658</v>
       </c>
       <c r="R30" s="54">
+        <f t="shared" si="11"/>
+        <v>0.31438668006839776</v>
+      </c>
+      <c r="S30" s="29">
+        <f t="shared" si="12"/>
+        <v>104.78630020912925</v>
+      </c>
+      <c r="T30" s="29">
         <f t="shared" si="13"/>
-        <v>0.31438668006839776</v>
-      </c>
-      <c r="S30" s="29">
-        <f t="shared" si="14"/>
-        <v>104.78630020912925</v>
-      </c>
-      <c r="T30" s="29">
+        <v>97.545892638379556</v>
+      </c>
+      <c r="U30" s="29">
         <f t="shared" si="4"/>
-        <v>95.542164639210398</v>
-      </c>
-      <c r="U30" s="29">
+        <v>278.21967695999996</v>
+      </c>
+      <c r="V30" s="33">
         <f t="shared" si="5"/>
-        <v>278.21967695999996</v>
-      </c>
-      <c r="V30" s="33">
-        <f t="shared" si="6"/>
         <v>-1.7351666123233827</v>
       </c>
       <c r="W30">
-        <v>4952.18</v>
+        <f>thrust!O3</f>
+        <v>4948.68</v>
       </c>
       <c r="AE30" s="19"/>
       <c r="AF30" s="20" t="s">
         <v>154</v>
       </c>
       <c r="AG30" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6509.1469986599996</v>
       </c>
       <c r="AH30" s="21">
@@ -15944,28 +15924,28 @@
       </c>
       <c r="AI30" s="21"/>
       <c r="AJ30" s="34">
+        <f t="shared" si="15"/>
+        <v>0.36508957561230709</v>
+      </c>
+      <c r="AK30" s="34">
+        <f t="shared" si="6"/>
+        <v>2.8303754543725274E-2</v>
+      </c>
+      <c r="AL30" s="35">
+        <f t="shared" si="7"/>
+        <v>3.6</v>
+      </c>
+      <c r="AM30" s="36">
+        <f>AJ30^2</f>
+        <v>0.13329039822077449</v>
+      </c>
+      <c r="AN30" s="34">
         <f t="shared" si="16"/>
-        <v>0.38056360649880344</v>
-      </c>
-      <c r="AK30" s="34">
-        <f t="shared" si="7"/>
-        <v>2.9524253182379983E-2</v>
-      </c>
-      <c r="AL30" s="35">
-        <f t="shared" si="8"/>
-        <v>3.6</v>
-      </c>
-      <c r="AM30" s="36">
-        <f t="shared" si="9"/>
-        <v>0.14482865859137611</v>
-      </c>
-      <c r="AN30" s="34">
-        <f t="shared" si="17"/>
-        <v>0.93982946400765077</v>
+        <v>0.67246236141640048</v>
       </c>
       <c r="AO30" s="37"/>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>4</v>
       </c>
@@ -15974,7 +15954,7 @@
         <v>26:04</v>
       </c>
       <c r="C31" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.28263888888888877</v>
       </c>
       <c r="D31" s="12">
@@ -15982,11 +15962,11 @@
         <v>1533.144</v>
       </c>
       <c r="E31" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>84204.462604197033</v>
       </c>
       <c r="F31" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.0180854607270098</v>
       </c>
       <c r="G31" s="29">
@@ -16020,34 +16000,35 @@
         <v>276.4206506728699</v>
       </c>
       <c r="R31" s="54">
+        <f t="shared" si="11"/>
+        <v>0.2665999599254415</v>
+      </c>
+      <c r="S31" s="29">
+        <f t="shared" si="12"/>
+        <v>88.848538525990051</v>
+      </c>
+      <c r="T31" s="29">
         <f t="shared" si="13"/>
-        <v>0.2665999599254415</v>
-      </c>
-      <c r="S31" s="29">
-        <f t="shared" si="14"/>
-        <v>88.848538525990051</v>
-      </c>
-      <c r="T31" s="29">
+        <v>82.70344635992042</v>
+      </c>
+      <c r="U31" s="29">
         <f t="shared" si="4"/>
-        <v>80.99524744042489</v>
-      </c>
-      <c r="U31" s="29">
+        <v>278.19989543999998</v>
+      </c>
+      <c r="V31" s="33">
         <f t="shared" si="5"/>
-        <v>278.19989543999998</v>
-      </c>
-      <c r="V31" s="33">
-        <f t="shared" si="6"/>
         <v>-1.7792447671300806</v>
       </c>
       <c r="W31">
-        <v>3899.08</v>
+        <f>thrust!O4</f>
+        <v>3900.24</v>
       </c>
       <c r="AE31" s="19"/>
       <c r="AF31" s="20" t="s">
         <v>154</v>
       </c>
       <c r="AG31" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6495.0856351900002</v>
       </c>
       <c r="AH31" s="21">
@@ -16056,28 +16037,28 @@
       </c>
       <c r="AI31" s="21"/>
       <c r="AJ31" s="34">
+        <f t="shared" si="15"/>
+        <v>0.50679345108629925</v>
+      </c>
+      <c r="AK31" s="34">
+        <f t="shared" si="6"/>
+        <v>3.1032500365259577E-2</v>
+      </c>
+      <c r="AL31" s="35">
+        <f t="shared" si="7"/>
+        <v>5.4</v>
+      </c>
+      <c r="AM31" s="36">
+        <f t="shared" ref="AM31:AM33" si="17">AJ31^2</f>
+        <v>0.25683960206396117</v>
+      </c>
+      <c r="AN31" s="34">
         <f t="shared" si="16"/>
-        <v>0.52839553148120866</v>
-      </c>
-      <c r="AK31" s="34">
-        <f t="shared" si="7"/>
-        <v>3.2345638253647377E-2</v>
-      </c>
-      <c r="AL31" s="35">
-        <f t="shared" si="8"/>
-        <v>5.4</v>
-      </c>
-      <c r="AM31" s="36">
-        <f t="shared" si="9"/>
-        <v>0.27920183768930895</v>
-      </c>
-      <c r="AN31" s="34">
-        <f t="shared" si="17"/>
-        <v>1.2197636995664183</v>
+        <v>0.94931069095314036</v>
       </c>
       <c r="AO31" s="37"/>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>5</v>
       </c>
@@ -16086,7 +16067,7 @@
         <v>29:47</v>
       </c>
       <c r="C32" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.43750000000000011</v>
       </c>
       <c r="D32" s="12">
@@ -16094,11 +16075,11 @@
         <v>1530.096</v>
       </c>
       <c r="E32" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>84236.003208777372</v>
       </c>
       <c r="F32" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.0184666554384738</v>
       </c>
       <c r="G32" s="29">
@@ -16132,34 +16113,35 @@
         <v>276.66244474691808</v>
       </c>
       <c r="R32" s="54">
+        <f t="shared" si="11"/>
+        <v>0.21202948818695572</v>
+      </c>
+      <c r="S32" s="29">
+        <f t="shared" si="12"/>
+        <v>70.692987653949729</v>
+      </c>
+      <c r="T32" s="29">
         <f t="shared" si="13"/>
-        <v>0.21202948818695572</v>
-      </c>
-      <c r="S32" s="29">
-        <f t="shared" si="14"/>
-        <v>70.692987653949729</v>
-      </c>
-      <c r="T32" s="29">
+        <v>65.787156397197379</v>
+      </c>
+      <c r="U32" s="29">
         <f t="shared" si="4"/>
-        <v>64.456527731121213</v>
-      </c>
-      <c r="U32" s="29">
+        <v>278.21967695999996</v>
+      </c>
+      <c r="V32" s="33">
         <f t="shared" si="5"/>
-        <v>278.21967695999996</v>
-      </c>
-      <c r="V32" s="33">
-        <f t="shared" si="6"/>
         <v>-1.5572322130818748</v>
       </c>
       <c r="W32">
-        <v>3986.95</v>
+        <f>thrust!O5</f>
+        <v>3990.5</v>
       </c>
       <c r="AE32" s="19"/>
       <c r="AF32" s="20" t="s">
         <v>154</v>
       </c>
       <c r="AG32" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6470.5916472099998</v>
       </c>
       <c r="AH32" s="21">
@@ -16168,28 +16150,28 @@
       </c>
       <c r="AI32" s="21"/>
       <c r="AJ32" s="34">
+        <f t="shared" si="15"/>
+        <v>0.79791217370818568</v>
+      </c>
+      <c r="AK32" s="34">
+        <f t="shared" si="6"/>
+        <v>5.0178507306054103E-2</v>
+      </c>
+      <c r="AL32" s="35">
+        <f t="shared" si="7"/>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="AM32" s="36">
+        <f t="shared" si="17"/>
+        <v>0.63666383695172191</v>
+      </c>
+      <c r="AN32" s="34">
         <f t="shared" si="16"/>
-        <v>0.83119612103402041</v>
-      </c>
-      <c r="AK32" s="34">
-        <f t="shared" si="7"/>
-        <v>5.2225141904757445E-2</v>
-      </c>
-      <c r="AL32" s="35">
-        <f t="shared" si="8"/>
-        <v>8.6999999999999993</v>
-      </c>
-      <c r="AM32" s="36">
-        <f t="shared" si="9"/>
-        <v>0.69088699162200196</v>
-      </c>
-      <c r="AN32" s="34">
-        <f t="shared" si="17"/>
-        <v>0.91396750473976884</v>
+        <v>0.81819662493921452</v>
       </c>
       <c r="AO32" s="37"/>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:70" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>6</v>
       </c>
@@ -16198,7 +16180,7 @@
         <v>32:00</v>
       </c>
       <c r="C33" s="11">
-        <f t="shared" si="10"/>
+        <f t="shared" si="8"/>
         <v>0.52986111111111101</v>
       </c>
       <c r="D33" s="12">
@@ -16206,11 +16188,11 @@
         <v>1557.528</v>
       </c>
       <c r="E33" s="29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="9"/>
         <v>83952.481909887749</v>
       </c>
       <c r="F33" s="29">
-        <f t="shared" si="12"/>
+        <f t="shared" si="10"/>
         <v>1.015040061803409</v>
       </c>
       <c r="G33" s="29">
@@ -16244,34 +16226,35 @@
         <v>276.30215286410174</v>
       </c>
       <c r="R33" s="54">
+        <f t="shared" si="11"/>
+        <v>0.19250483209916044</v>
+      </c>
+      <c r="S33" s="29">
+        <f t="shared" si="12"/>
+        <v>64.141444449119945</v>
+      </c>
+      <c r="T33" s="29">
         <f t="shared" si="13"/>
-        <v>0.19250483209916044</v>
-      </c>
-      <c r="S33" s="29">
-        <f t="shared" si="14"/>
-        <v>64.141444449119945</v>
-      </c>
-      <c r="T33" s="29">
+        <v>59.628567855346276</v>
+      </c>
+      <c r="U33" s="29">
         <f t="shared" si="4"/>
-        <v>58.384450838893592</v>
-      </c>
-      <c r="U33" s="29">
+        <v>278.04164327999996</v>
+      </c>
+      <c r="V33" s="33">
         <f t="shared" si="5"/>
-        <v>278.04164327999996</v>
-      </c>
-      <c r="V33" s="33">
-        <f t="shared" si="6"/>
         <v>-1.7394904158982172</v>
       </c>
       <c r="W33">
-        <v>4639.53</v>
+        <f>thrust!O6</f>
+        <v>4639.28</v>
       </c>
       <c r="AE33" s="19"/>
       <c r="AF33" s="20" t="s">
         <v>154</v>
       </c>
       <c r="AG33" s="21">
-        <f t="shared" si="15"/>
+        <f t="shared" si="14"/>
         <v>6453.3551371499998</v>
       </c>
       <c r="AH33" s="21">
@@ -16280,28 +16263,28 @@
       </c>
       <c r="AI33" s="21"/>
       <c r="AJ33" s="34">
+        <f t="shared" si="15"/>
+        <v>0.96865725604009023</v>
+      </c>
+      <c r="AK33" s="34">
+        <f t="shared" si="6"/>
+        <v>7.100917707904697E-2</v>
+      </c>
+      <c r="AL33" s="35">
+        <f t="shared" si="7"/>
+        <v>10.6</v>
+      </c>
+      <c r="AM33" s="36">
+        <f t="shared" si="17"/>
+        <v>0.9382968796791169</v>
+      </c>
+      <c r="AN33" s="34">
         <f t="shared" si="16"/>
-        <v>1.0103794258647087</v>
-      </c>
-      <c r="AK33" s="34">
-        <f t="shared" si="7"/>
-        <v>7.4071687748360551E-2</v>
-      </c>
-      <c r="AL33" s="35">
-        <f t="shared" si="8"/>
-        <v>10.6</v>
-      </c>
-      <c r="AM33" s="36">
-        <f t="shared" si="9"/>
-        <v>1.0208665842106985</v>
-      </c>
-      <c r="AN33" s="34">
-        <f t="shared" si="17"/>
-        <v>0.76464187548233786</v>
+        <v>0.70529055741227087</v>
       </c>
       <c r="AO33" s="37"/>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:70" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>7</v>
       </c>
@@ -16315,11 +16298,10 @@
       <c r="AI34" s="19"/>
       <c r="AL34" s="39"/>
       <c r="AN34" s="33">
-        <f>AVERAGE(AN28:AN33)</f>
-        <v>0.90554073780265565</v>
-      </c>
-    </row>
-    <row r="35" spans="1:41" ht="16.8" x14ac:dyDescent="0.75">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="35" spans="1:70" ht="16.8" x14ac:dyDescent="0.75">
       <c r="C35" t="s">
         <v>39</v>
       </c>
@@ -16334,13 +16316,14 @@
         <v>155</v>
       </c>
       <c r="AK35" s="14">
-        <v>2.37115E-2</v>
+        <f>0.0208271</f>
+        <v>2.0827100000000001E-2</v>
       </c>
       <c r="AL35" s="39" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:70" x14ac:dyDescent="0.55000000000000004">
       <c r="R36" s="55"/>
       <c r="AE36" s="19"/>
       <c r="AF36" s="20"/>
@@ -16348,8 +16331,12 @@
       <c r="AH36" s="19"/>
       <c r="AI36" s="19"/>
       <c r="AL36" s="39"/>
-    </row>
-    <row r="37" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="BR36">
+        <f>0.4065/19.512</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:70" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="41"/>
       <c r="B37" s="41"/>
       <c r="C37" s="41"/>
@@ -16373,9 +16360,14 @@
       <c r="AG37" s="19"/>
       <c r="AH37" s="19"/>
       <c r="AI37" s="19"/>
-      <c r="AL37" s="39"/>
-    </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ37" t="s">
+        <v>183</v>
+      </c>
+      <c r="AK37" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="38" spans="1:70" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="13" t="s">
         <v>43</v>
       </c>
@@ -16385,18 +16377,31 @@
       <c r="AG38" s="19"/>
       <c r="AH38" s="19"/>
       <c r="AI38" s="19"/>
-      <c r="AL38" s="39"/>
-    </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AJ38">
+        <v>1</v>
+      </c>
+      <c r="AK38">
+        <f>AJ38*19.512-0.4065</f>
+        <v>19.105499999999999</v>
+      </c>
+      <c r="AL38">
+        <f>AJ38-AK35</f>
+        <v>0.97917290000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:70" x14ac:dyDescent="0.55000000000000004">
       <c r="R39" s="55"/>
       <c r="AE39" s="19"/>
       <c r="AF39" s="20"/>
       <c r="AG39" s="19"/>
       <c r="AH39" s="19"/>
       <c r="AI39" s="19"/>
-      <c r="AL39" s="39"/>
-    </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+      <c r="AL39">
+        <f>AK38/AL38/PI()/O5</f>
+        <v>0.73599599851946251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:70" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" t="s">
         <v>19</v>
       </c>
@@ -16411,7 +16416,7 @@
       <c r="AI40" s="19"/>
       <c r="AL40" s="39"/>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:70" x14ac:dyDescent="0.55000000000000004">
       <c r="R41" s="55"/>
       <c r="AE41" s="19"/>
       <c r="AF41" s="20"/>
@@ -16420,7 +16425,7 @@
       <c r="AI41" s="19"/>
       <c r="AL41" s="39"/>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:70" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" t="s">
         <v>21</v>
       </c>
@@ -16509,7 +16514,7 @@
       <c r="AI42" s="19"/>
       <c r="AL42" s="39"/>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:70" x14ac:dyDescent="0.55000000000000004">
       <c r="B43" t="s">
         <v>42</v>
       </c>
@@ -16595,7 +16600,7 @@
       <c r="AI43" s="19"/>
       <c r="AL43" s="39"/>
     </row>
-    <row r="44" spans="1:41" ht="16.8" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:70" ht="16.8" x14ac:dyDescent="0.75">
       <c r="R44" s="55"/>
       <c r="AE44" s="19"/>
       <c r="AF44" s="20"/>
@@ -16613,7 +16618,7 @@
       </c>
       <c r="AM44" s="27"/>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:70" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>1</v>
       </c>
@@ -16679,8 +16684,8 @@
         <v>89.149796976254251</v>
       </c>
       <c r="T45" s="29">
-        <f t="shared" ref="T45:T51" si="22">S45*SQRT(E45/101325)</f>
-        <v>79.715078858185265</v>
+        <f t="shared" ref="T45:T51" si="22">S45*SQRT(E45/287/Q45/1.225)</f>
+        <v>81.651701497925103</v>
       </c>
       <c r="U45" s="29">
         <f t="shared" ref="U45:U51" si="23">288.15-0.00649*D45</f>
@@ -16691,23 +16696,24 @@
         <v>-1.4684398461061505</v>
       </c>
       <c r="W45">
-        <v>4028.47</v>
+        <f>thrust!O7</f>
+        <v>4031.1499999999901</v>
       </c>
       <c r="X45" s="29">
         <f>T45*SQRT($O$6/AG45)</f>
-        <v>78.197168394219815</v>
+        <v>80.096914450360671</v>
       </c>
       <c r="Y45" s="33">
-        <f>W45/(0.5*F45*T45^2*$O$7^2)</f>
-        <v>2.7508354095649348</v>
+        <f t="shared" ref="Y45:Y51" si="25">W45/(0.5*F45*T45^2*$O$7^2)</f>
+        <v>2.6236380009416598</v>
       </c>
       <c r="Z45" s="33">
-        <f>W45/(0.5*F45*X45^2*$O$7^2)</f>
-        <v>2.8586666300632162</v>
+        <f t="shared" ref="Z45:Z51" si="26">W45/(0.5*F45*X45^2*$O$7^2)</f>
+        <v>2.7264831536554515</v>
       </c>
       <c r="AA45" s="33">
         <f>RADIANS(J45)-$O$9/$O$8*(Z45-Y45)</f>
-        <v>-5.9278458270829856E-4</v>
+        <v>-5.6537448665887899E-4</v>
       </c>
       <c r="AB45" s="33">
         <f>L45*$O$6/AG45</f>
@@ -16720,21 +16726,21 @@
         <v>154</v>
       </c>
       <c r="AG45" s="21">
-        <f t="shared" ref="AG45:AG51" si="25">$AG$16-O45</f>
+        <f t="shared" ref="AG45:AG51" si="27">$AG$16-O45</f>
         <v>6410.7174543699994</v>
       </c>
       <c r="AH45" s="21">
-        <f t="shared" ref="AH45:AH51" si="26">AG45*9.80665</f>
+        <f t="shared" ref="AH45:AH51" si="28">AG45*9.80665</f>
         <v>62867.662323897552</v>
       </c>
       <c r="AI45" s="21"/>
       <c r="AJ45" s="34">
-        <f t="shared" ref="AJ45:AJ51" si="27">2*AH45/(1.225*$T45^2*$O$2)</f>
-        <v>0.53841729762787893</v>
+        <f t="shared" ref="AJ45:AJ51" si="29">2*AH45/(1.225*$T45^2*$O$2)</f>
+        <v>0.51317972021993852</v>
       </c>
       <c r="AK45" s="34">
-        <f>2*W45/(1.225*$T45^2*$O$2)</f>
-        <v>3.4501011343481935E-2</v>
+        <f t="shared" ref="AK45:AK51" si="30">2*W45/(1.225*$T45^2*$O$2)</f>
+        <v>3.2905699889181891E-2</v>
       </c>
       <c r="AL45" s="35">
         <f>I45</f>
@@ -16742,7 +16748,7 @@
       </c>
       <c r="AM45" s="43"/>
     </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:70" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>2</v>
       </c>
@@ -16750,14 +16756,14 @@
         <v>70</v>
       </c>
       <c r="C46" s="11">
-        <f t="shared" ref="C46:C51" si="28">B46-$B$28</f>
+        <f t="shared" ref="C46:C51" si="31">B46-$B$28</f>
         <v>0.8291666666666665</v>
       </c>
       <c r="D46" s="12">
         <v>1935.48</v>
       </c>
       <c r="E46" s="29">
-        <f t="shared" ref="E46:E51" si="29">101325*(1+((-0.00649*D46)/288.15))^(-9.80665/(-0.00649*287))</f>
+        <f t="shared" ref="E46:E51" si="32">101325*(1+((-0.00649*D46)/288.15))^(-9.80665/(-0.00649*287))</f>
         <v>80131.294227173581</v>
       </c>
       <c r="F46" s="29">
@@ -16768,7 +16774,7 @@
         <v>77.166600000000003</v>
       </c>
       <c r="H46" s="29">
-        <f t="shared" ref="H46:H51" si="30">G46-2*0.514444</f>
+        <f t="shared" ref="H46:H51" si="33">G46-2*0.514444</f>
         <v>76.137712000000008</v>
       </c>
       <c r="I46" s="39">
@@ -16809,7 +16815,7 @@
       </c>
       <c r="T46" s="29">
         <f t="shared" si="22"/>
-        <v>74.143094114929639</v>
+        <v>76.014109571786733</v>
       </c>
       <c r="U46" s="29">
         <f t="shared" si="23"/>
@@ -16820,26 +16826,27 @@
         <v>-1.3987334571677366</v>
       </c>
       <c r="W46">
-        <v>4123.0599999999904</v>
+        <f>thrust!O8</f>
+        <v>4125.3</v>
       </c>
       <c r="X46" s="29">
-        <f t="shared" ref="X46:X51" si="31">T46*SQRT($O$6/AG46)</f>
-        <v>72.80859868864286</v>
+        <f t="shared" ref="X46:X51" si="34">T46*SQRT($O$6/AG46)</f>
+        <v>74.645937892849673</v>
       </c>
       <c r="Y46" s="33">
-        <f>W46/(0.5*F46*T46^2*$O$7^2)</f>
-        <v>3.2903217913899012</v>
+        <f t="shared" si="25"/>
+        <v>3.1320395855193568</v>
       </c>
       <c r="Z46" s="33">
-        <f>W46/(0.5*F46*X46^2*$O$7^2)</f>
-        <v>3.4120425671958752</v>
+        <f t="shared" si="26"/>
+        <v>3.2479049361978372</v>
       </c>
       <c r="AA46" s="33">
-        <f t="shared" ref="AA46:AA51" si="32">RADIANS(J46)-$O$9/$O$8*(Z46-Y46)</f>
-        <v>-7.6504571601489673E-3</v>
+        <f t="shared" ref="AA46:AA51" si="35">RADIANS(J46)-$O$9/$O$8*(Z46-Y46)</f>
+        <v>-7.6182679136140427E-3</v>
       </c>
       <c r="AB46" s="33">
-        <f t="shared" ref="AB46:AB51" si="33">L46*$O$6/AG46</f>
+        <f t="shared" ref="AB46:AB51" si="36">L46*$O$6/AG46</f>
         <v>-22.17950090351945</v>
       </c>
       <c r="AC46" s="33"/>
@@ -16849,29 +16856,29 @@
         <v>154</v>
       </c>
       <c r="AG46" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6397.1096832699996</v>
       </c>
       <c r="AH46" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>62734.215675439737</v>
       </c>
       <c r="AI46" s="21"/>
       <c r="AJ46" s="34">
-        <f t="shared" si="27"/>
-        <v>0.62106308050824466</v>
+        <f t="shared" si="29"/>
+        <v>0.59086559125904159</v>
       </c>
       <c r="AK46" s="34">
-        <f>2*W46/(1.225*$T46^2*$O$2)</f>
-        <v>4.0817922359437674E-2</v>
+        <f t="shared" si="30"/>
+        <v>3.8854360373795152E-2</v>
       </c>
       <c r="AL46" s="35">
-        <f t="shared" ref="AL46:AL51" si="34">I46</f>
+        <f t="shared" ref="AL46:AL51" si="37">I46</f>
         <v>6.3</v>
       </c>
       <c r="AM46" s="43"/>
     </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:70" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>3</v>
       </c>
@@ -16879,14 +16886,14 @@
         <v>73</v>
       </c>
       <c r="C47" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.92152777777777761</v>
       </c>
       <c r="D47" s="12">
         <v>1996.44</v>
       </c>
       <c r="E47" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>79527.491664598201</v>
       </c>
       <c r="F47" s="29">
@@ -16897,7 +16904,7 @@
         <v>72.02216</v>
       </c>
       <c r="H47" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>70.993272000000005</v>
       </c>
       <c r="I47" s="39">
@@ -16938,7 +16945,7 @@
       </c>
       <c r="T47" s="29">
         <f t="shared" si="22"/>
-        <v>69.072943080395191</v>
+        <v>70.88918688122591</v>
       </c>
       <c r="U47" s="29">
         <f t="shared" si="23"/>
@@ -16949,26 +16956,27 @@
         <v>-1.5688702207417577</v>
       </c>
       <c r="W47">
-        <v>4195.9399999999996</v>
+        <f>thrust!O9</f>
+        <v>4196.1899999999996</v>
       </c>
       <c r="X47" s="29">
-        <f t="shared" si="31"/>
-        <v>67.916442361425439</v>
+        <f t="shared" si="34"/>
+        <v>69.702276465379043</v>
       </c>
       <c r="Y47" s="33">
-        <f>W47/(0.5*F47*T47^2*$O$7^2)</f>
-        <v>3.8873921255967847</v>
+        <f t="shared" si="25"/>
+        <v>3.6909669618668399</v>
       </c>
       <c r="Z47" s="33">
-        <f>W47/(0.5*F47*X47^2*$O$7^2)</f>
-        <v>4.0209105867589789</v>
+        <f t="shared" si="26"/>
+        <v>3.8177388986889587</v>
       </c>
       <c r="AA47" s="33">
-        <f t="shared" si="32"/>
-        <v>-1.6441959275025109E-2</v>
+        <f t="shared" si="35"/>
+        <v>-1.6404871355615656E-2</v>
       </c>
       <c r="AB47" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-28.037025248346879</v>
       </c>
       <c r="AC47" s="33"/>
@@ -16978,29 +16986,29 @@
         <v>154</v>
       </c>
       <c r="AG47" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6380.7803579499996</v>
       </c>
       <c r="AH47" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>62574.079697290363</v>
       </c>
       <c r="AI47" s="21"/>
       <c r="AJ47" s="34">
-        <f t="shared" si="27"/>
-        <v>0.71375834899749269</v>
+        <f t="shared" si="29"/>
+        <v>0.67765263817216348</v>
       </c>
       <c r="AK47" s="34">
-        <f>2*W47/(1.225*$T47^2*$O$2)</f>
-        <v>4.7861466303310674E-2</v>
+        <f t="shared" si="30"/>
+        <v>4.544308502063011E-2</v>
       </c>
       <c r="AL47" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>7.3</v>
       </c>
       <c r="AM47" s="43"/>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:70" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>4</v>
       </c>
@@ -17008,14 +17016,14 @@
         <v>76</v>
       </c>
       <c r="C48" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>0.9854166666666665</v>
       </c>
       <c r="D48" s="12">
         <v>2097.0239999999999</v>
       </c>
       <c r="E48" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>78539.27842640446</v>
       </c>
       <c r="F48" s="29">
@@ -17026,7 +17034,7 @@
         <v>66.877719999999997</v>
       </c>
       <c r="H48" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>65.848832000000002</v>
       </c>
       <c r="I48" s="39">
@@ -17067,7 +17075,7 @@
       </c>
       <c r="T48" s="29">
         <f t="shared" si="22"/>
-        <v>64.005005017463361</v>
+        <v>65.760726951788428</v>
       </c>
       <c r="U48" s="29">
         <f t="shared" si="23"/>
@@ -17078,26 +17086,27 @@
         <v>-1.5210524981773688</v>
       </c>
       <c r="W48">
-        <v>4281.6899999999996</v>
+        <f>thrust!O10</f>
+        <v>4279.87</v>
       </c>
       <c r="X48" s="29">
-        <f t="shared" si="31"/>
-        <v>62.989354367399237</v>
+        <f t="shared" si="34"/>
+        <v>64.71721597855985</v>
       </c>
       <c r="Y48" s="33">
-        <f>W48/(0.5*F48*T48^2*$O$7^2)</f>
-        <v>4.6780270609612264</v>
+        <f t="shared" si="25"/>
+        <v>4.4296840168629386</v>
       </c>
       <c r="Z48" s="33">
-        <f>W48/(0.5*F48*X48^2*$O$7^2)</f>
-        <v>4.8301018414956189</v>
+        <f t="shared" si="26"/>
+        <v>4.573685583318758</v>
       </c>
       <c r="AA48" s="33">
-        <f t="shared" si="32"/>
-        <v>-2.7015945132277178E-2</v>
+        <f t="shared" si="35"/>
+        <v>-2.6971563951979232E-2</v>
       </c>
       <c r="AB48" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>-44.551699294519231</v>
       </c>
       <c r="AC48" s="33"/>
@@ -17107,24 +17116,24 @@
         <v>154</v>
       </c>
       <c r="AG48" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6369.4405486999995</v>
       </c>
       <c r="AH48" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>62462.874156908845</v>
       </c>
       <c r="AI48" s="21"/>
       <c r="AJ48" s="34">
-        <f t="shared" si="27"/>
-        <v>0.8297872247663739</v>
+        <f t="shared" si="29"/>
+        <v>0.78607033173851326</v>
       </c>
       <c r="AK48" s="34">
-        <f>2*W48/(1.225*$T48^2*$O$2)</f>
-        <v>5.6880054117986176E-2</v>
+        <f t="shared" si="30"/>
+        <v>5.3860455128057809E-2</v>
       </c>
       <c r="AL48" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>8.5</v>
       </c>
       <c r="AM48" s="43"/>
@@ -17137,14 +17146,14 @@
         <v>79</v>
       </c>
       <c r="C49" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1.0999999999999996</v>
       </c>
       <c r="D49" s="12">
         <v>1877.568</v>
       </c>
       <c r="E49" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>80708.341143121463</v>
       </c>
       <c r="F49" s="29">
@@ -17155,7 +17164,7 @@
         <v>88.998812000000001</v>
       </c>
       <c r="H49" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>87.969924000000006</v>
       </c>
       <c r="I49" s="39">
@@ -17196,7 +17205,7 @@
       </c>
       <c r="T49" s="29">
         <f t="shared" si="22"/>
-        <v>85.530596285369654</v>
+        <v>87.786928143923532</v>
       </c>
       <c r="U49" s="29">
         <f t="shared" si="23"/>
@@ -17207,26 +17216,27 @@
         <v>-2.3861103122314944</v>
       </c>
       <c r="W49">
-        <v>3963.58</v>
+        <f>thrust!O11</f>
+        <v>3963.7</v>
       </c>
       <c r="X49" s="29">
-        <f t="shared" si="31"/>
-        <v>84.30254548668016</v>
+        <f t="shared" si="34"/>
+        <v>86.526480866531131</v>
       </c>
       <c r="Y49" s="33">
-        <f>W49/(0.5*F49*T49^2*$O$7^2)</f>
-        <v>2.3598722626561606</v>
+        <f t="shared" si="25"/>
+        <v>2.240190436353557</v>
       </c>
       <c r="Z49" s="33">
-        <f>W49/(0.5*F49*X49^2*$O$7^2)</f>
-        <v>2.4291264272814272</v>
+        <f t="shared" si="26"/>
+        <v>2.3059323494758193</v>
       </c>
       <c r="AA49" s="33">
-        <f t="shared" si="32"/>
-        <v>6.6006035106386252E-3</v>
+        <f t="shared" si="35"/>
+        <v>6.6199115415776629E-3</v>
       </c>
       <c r="AB49" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>25.25874245982655</v>
       </c>
       <c r="AC49" s="33"/>
@@ -17236,24 +17246,24 @@
         <v>154</v>
       </c>
       <c r="AG49" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6349.9360767899998</v>
       </c>
       <c r="AH49" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>62271.600627452644</v>
       </c>
       <c r="AI49" s="21"/>
       <c r="AJ49" s="34">
-        <f t="shared" si="27"/>
-        <v>0.46325453729934102</v>
+        <f t="shared" si="29"/>
+        <v>0.43974709224861286</v>
       </c>
       <c r="AK49" s="34">
-        <f>2*W49/(1.225*$T49^2*$O$2)</f>
-        <v>2.9486096397840958E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.7990697717466539E-2</v>
       </c>
       <c r="AL49" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>4.5</v>
       </c>
       <c r="AM49" s="43"/>
@@ -17266,14 +17276,14 @@
         <v>81</v>
       </c>
       <c r="C50" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1.1687500000000002</v>
       </c>
       <c r="D50" s="12">
         <v>1770.8880000000001</v>
       </c>
       <c r="E50" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>81780.13307026698</v>
       </c>
       <c r="F50" s="29">
@@ -17284,7 +17294,7 @@
         <v>92.085476</v>
       </c>
       <c r="H50" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>91.056588000000005</v>
       </c>
       <c r="I50" s="39">
@@ -17325,7 +17335,7 @@
       </c>
       <c r="T50" s="29">
         <f t="shared" si="22"/>
-        <v>88.680463088471114</v>
+        <v>90.866984988060651</v>
       </c>
       <c r="U50" s="29">
         <f t="shared" si="23"/>
@@ -17336,26 +17346,27 @@
         <v>-2.1569707047172528</v>
       </c>
       <c r="W50">
-        <v>3963.66</v>
+        <f>thrust!O12</f>
+        <v>3961.72999999999</v>
       </c>
       <c r="X50" s="29">
-        <f t="shared" si="31"/>
-        <v>87.491598774391591</v>
+        <f t="shared" si="34"/>
+        <v>89.648807815569668</v>
       </c>
       <c r="Y50" s="33">
-        <f>W50/(0.5*F50*T50^2*$O$7^2)</f>
-        <v>2.1664813976531554</v>
+        <f t="shared" si="25"/>
+        <v>2.0624674958210947</v>
       </c>
       <c r="Z50" s="33">
-        <f>W50/(0.5*F50*X50^2*$O$7^2)</f>
-        <v>2.2257591308005784</v>
+        <f t="shared" si="26"/>
+        <v>2.1188992740837436</v>
       </c>
       <c r="AA50" s="33">
-        <f t="shared" si="32"/>
-        <v>1.0146105822785845E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.0161750996521076E-2</v>
       </c>
       <c r="AB50" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>38.934696350074475</v>
       </c>
       <c r="AC50" s="33"/>
@@ -17365,24 +17376,24 @@
         <v>154</v>
       </c>
       <c r="AG50" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6337.6890827999996</v>
       </c>
       <c r="AH50" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>62151.498643840612</v>
       </c>
       <c r="AI50" s="21"/>
       <c r="AJ50" s="34">
-        <f t="shared" si="27"/>
-        <v>0.43009892069756767</v>
+        <f t="shared" si="29"/>
+        <v>0.40964911505987472</v>
       </c>
       <c r="AK50" s="34">
-        <f>2*W50/(1.225*$T50^2*$O$2)</f>
-        <v>2.7429200022694354E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.6112309823875652E-2</v>
       </c>
       <c r="AL50" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="AM50" s="43"/>
@@ -17395,14 +17406,14 @@
         <v>84</v>
       </c>
       <c r="C51" s="11">
-        <f t="shared" si="28"/>
+        <f t="shared" si="31"/>
         <v>1.2243055555555555</v>
       </c>
       <c r="D51" s="12">
         <v>1618.4880000000001</v>
       </c>
       <c r="E51" s="29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="32"/>
         <v>83331.238166893847</v>
       </c>
       <c r="F51" s="29">
@@ -17413,7 +17424,7 @@
         <v>98.773247999999995</v>
       </c>
       <c r="H51" s="29">
-        <f t="shared" si="30"/>
+        <f t="shared" si="33"/>
         <v>97.74436</v>
       </c>
       <c r="I51" s="39">
@@ -17454,7 +17465,7 @@
       </c>
       <c r="T51" s="29">
         <f t="shared" si="22"/>
-        <v>95.418225905889614</v>
+        <v>97.533189733994604</v>
       </c>
       <c r="U51" s="29">
         <f t="shared" si="23"/>
@@ -17465,26 +17476,27 @@
         <v>-1.806519341320552</v>
       </c>
       <c r="W51">
-        <v>3899.67</v>
+        <f>thrust!O13</f>
+        <v>3902.97999999999</v>
       </c>
       <c r="X51" s="29">
-        <f t="shared" si="31"/>
-        <v>94.209858613900337</v>
+        <f t="shared" si="34"/>
+        <v>96.298038742252388</v>
       </c>
       <c r="Y51" s="33">
-        <f>W51/(0.5*F51*T51^2*$O$7^2)</f>
-        <v>1.8068397467612316</v>
+        <f t="shared" si="25"/>
+        <v>1.7307961628759161</v>
       </c>
       <c r="Z51" s="33">
-        <f>W51/(0.5*F51*X51^2*$O$7^2)</f>
-        <v>1.8534872658392836</v>
+        <f t="shared" si="26"/>
+        <v>1.775480450551508</v>
       </c>
       <c r="AA51" s="33">
-        <f t="shared" si="32"/>
-        <v>1.7196855376755242E-2</v>
+        <f t="shared" si="35"/>
+        <v>1.7207647921829751E-2</v>
       </c>
       <c r="AB51" s="33">
-        <f t="shared" si="33"/>
+        <f t="shared" si="36"/>
         <v>80.911102949107573</v>
       </c>
       <c r="AC51" s="33"/>
@@ -17494,24 +17506,24 @@
         <v>154</v>
       </c>
       <c r="AG51" s="21">
-        <f t="shared" si="25"/>
+        <f t="shared" si="27"/>
         <v>6328.1636430299995</v>
       </c>
       <c r="AH51" s="21">
-        <f t="shared" si="26"/>
+        <f t="shared" si="28"/>
         <v>62058.085989920139</v>
       </c>
       <c r="AI51" s="21"/>
       <c r="AJ51" s="34">
-        <f t="shared" si="27"/>
-        <v>0.37094400275641126</v>
+        <f t="shared" si="29"/>
+        <v>0.35503091667658349</v>
       </c>
       <c r="AK51" s="34">
-        <f>2*W51/(1.225*$T51^2*$O$2)</f>
-        <v>2.3309761752304984E-2</v>
+        <f t="shared" si="30"/>
+        <v>2.2328735169103324E-2</v>
       </c>
       <c r="AL51" s="35">
-        <f t="shared" si="34"/>
+        <f t="shared" si="37"/>
         <v>3.4</v>
       </c>
       <c r="AM51" s="43"/>
@@ -17651,11 +17663,11 @@
       <c r="C55" s="12"/>
       <c r="D55" s="46">
         <f>AJ51</f>
-        <v>0.37094400275641126</v>
+        <v>0.35503091667658349</v>
       </c>
       <c r="E55" s="46">
         <f>AK51</f>
-        <v>2.3309761752304984E-2</v>
+        <v>2.2328735169103324E-2</v>
       </c>
       <c r="F55" s="46">
         <f>AL51</f>
@@ -17663,27 +17675,27 @@
       </c>
       <c r="G55" s="46">
         <f>D55^2</f>
-        <v>0.13759945318094843</v>
+        <v>0.12604695179621517</v>
       </c>
       <c r="H55" s="46">
-        <f t="shared" ref="H55:H61" si="35">1/((E55-$AK$52)/G55)/($O$5*PI())</f>
-        <v>0.22266671597208687</v>
+        <f t="shared" ref="H55:H61" si="38">1/((E55-$AK$52)/G55)/($O$5*PI())</f>
+        <v>0.21293382489912596</v>
       </c>
       <c r="I55" s="47">
         <f>AA45</f>
-        <v>-5.9278458270829856E-4</v>
+        <v>-5.6537448665887899E-4</v>
       </c>
       <c r="J55" s="46">
         <f>I58</f>
-        <v>-2.7015945132277178E-2</v>
+        <v>-2.6971563951979232E-2</v>
       </c>
       <c r="K55" s="47">
         <f>X45</f>
-        <v>78.197168394219815</v>
+        <v>80.096914450360671</v>
       </c>
       <c r="L55" s="46">
         <f>K58</f>
-        <v>62.989354367399237</v>
+        <v>64.71721597855985</v>
       </c>
       <c r="M55" s="47">
         <f>AB45</f>
@@ -17694,7 +17706,7 @@
         <v>-44.551699294519231</v>
       </c>
       <c r="P55" s="47">
-        <f t="shared" ref="P55:P61" si="36">I45</f>
+        <f t="shared" ref="P55:P61" si="39">I45</f>
         <v>5.3</v>
       </c>
       <c r="Q55" s="46">
@@ -17702,8 +17714,8 @@
         <v>8.5</v>
       </c>
       <c r="R55" s="46">
-        <f t="shared" ref="R55:R61" si="37">J55*180/PI()</f>
-        <v>-1.5478996356364829</v>
+        <f t="shared" ref="R55:R61" si="40">J55*180/PI()</f>
+        <v>-1.5453567813156015</v>
       </c>
       <c r="S55" s="46"/>
       <c r="T55" s="46"/>
@@ -17729,42 +17741,42 @@
       <c r="C56" s="12"/>
       <c r="D56" s="46">
         <f>AJ50</f>
-        <v>0.43009892069756767</v>
+        <v>0.40964911505987472</v>
       </c>
       <c r="E56" s="46">
         <f>AK50</f>
-        <v>2.7429200022694354E-2</v>
+        <v>2.6112309823875652E-2</v>
       </c>
       <c r="F56" s="46">
         <f>AL50</f>
         <v>4.0999999999999996</v>
       </c>
       <c r="G56" s="46">
-        <f t="shared" ref="G56:G61" si="38">D56^2</f>
-        <v>0.1849850815852126</v>
+        <f t="shared" ref="G56:G61" si="41">D56^2</f>
+        <v>0.16781239746933849</v>
       </c>
       <c r="H56" s="46">
-        <f t="shared" si="35"/>
-        <v>0.25438997607946745</v>
+        <f t="shared" si="38"/>
+        <v>0.24241259605306606</v>
       </c>
       <c r="I56" s="47">
-        <f t="shared" ref="I56:I61" si="39">AA46</f>
-        <v>-7.6504571601489673E-3</v>
+        <f t="shared" ref="I56:I61" si="42">AA46</f>
+        <v>-7.6182679136140427E-3</v>
       </c>
       <c r="J56" s="46">
         <f>I57</f>
-        <v>-1.6441959275025109E-2</v>
+        <v>-1.6404871355615656E-2</v>
       </c>
       <c r="K56" s="47">
-        <f t="shared" ref="K56:K61" si="40">X46</f>
-        <v>72.80859868864286</v>
+        <f t="shared" ref="K56:K61" si="43">X46</f>
+        <v>74.645937892849673</v>
       </c>
       <c r="L56" s="46">
         <f>K57</f>
-        <v>67.916442361425439</v>
+        <v>69.702276465379043</v>
       </c>
       <c r="M56" s="47">
-        <f t="shared" ref="M56:M61" si="41">AB46</f>
+        <f t="shared" ref="M56:M61" si="44">AB46</f>
         <v>-22.17950090351945</v>
       </c>
       <c r="N56" s="46">
@@ -17772,7 +17784,7 @@
         <v>-28.037025248346879</v>
       </c>
       <c r="P56" s="47">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>6.3</v>
       </c>
       <c r="Q56" s="46">
@@ -17780,8 +17792,8 @@
         <v>7.3</v>
       </c>
       <c r="R56" s="46">
-        <f t="shared" si="37"/>
-        <v>-0.94205487338491756</v>
+        <f t="shared" si="40"/>
+        <v>-0.93992989213183453</v>
       </c>
       <c r="S56" s="46"/>
       <c r="T56" s="46"/>
@@ -17810,42 +17822,42 @@
       <c r="C57" s="12"/>
       <c r="D57" s="46">
         <f>AJ49</f>
-        <v>0.46325453729934102</v>
+        <v>0.43974709224861286</v>
       </c>
       <c r="E57" s="46">
         <f>AK49</f>
-        <v>2.9486096397840958E-2</v>
+        <v>2.7990697717466539E-2</v>
       </c>
       <c r="F57" s="46">
         <f>AL49</f>
         <v>4.5</v>
       </c>
       <c r="G57" s="46">
+        <f t="shared" si="41"/>
+        <v>0.19337750514111002</v>
+      </c>
+      <c r="H57" s="46">
         <f t="shared" si="38"/>
-        <v>0.21460476632842654</v>
-      </c>
-      <c r="H57" s="46">
-        <f t="shared" si="35"/>
-        <v>0.27453550133205323</v>
+        <v>0.26059654845304758</v>
       </c>
       <c r="I57" s="47">
-        <f t="shared" si="39"/>
-        <v>-1.6441959275025109E-2</v>
+        <f t="shared" si="42"/>
+        <v>-1.6404871355615656E-2</v>
       </c>
       <c r="J57" s="46">
         <f>I56</f>
-        <v>-7.6504571601489673E-3</v>
+        <v>-7.6182679136140427E-3</v>
       </c>
       <c r="K57" s="47">
-        <f t="shared" si="40"/>
-        <v>67.916442361425439</v>
+        <f t="shared" si="43"/>
+        <v>69.702276465379043</v>
       </c>
       <c r="L57" s="46">
         <f>K56</f>
-        <v>72.80859868864286</v>
+        <v>74.645937892849673</v>
       </c>
       <c r="M57" s="47">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-28.037025248346879</v>
       </c>
       <c r="N57" s="46">
@@ -17853,7 +17865,7 @@
         <v>-22.17950090351945</v>
       </c>
       <c r="P57" s="47">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>7.3</v>
       </c>
       <c r="Q57" s="46">
@@ -17861,8 +17873,8 @@
         <v>6.3</v>
       </c>
       <c r="R57" s="46">
-        <f t="shared" si="37"/>
-        <v>-0.43833890662217717</v>
+        <f t="shared" si="40"/>
+        <v>-0.43649459865001994</v>
       </c>
       <c r="S57" s="46"/>
       <c r="T57" s="46"/>
@@ -17891,43 +17903,43 @@
       <c r="B58" s="38"/>
       <c r="C58" s="12"/>
       <c r="D58" s="46">
-        <f t="shared" ref="D58:F61" si="42">AJ45</f>
-        <v>0.53841729762787893</v>
+        <f t="shared" ref="D58:F61" si="45">AJ45</f>
+        <v>0.51317972021993852</v>
       </c>
       <c r="E58" s="46">
+        <f t="shared" si="45"/>
+        <v>3.2905699889181891E-2</v>
+      </c>
+      <c r="F58" s="46">
+        <f t="shared" si="45"/>
+        <v>5.3</v>
+      </c>
+      <c r="G58" s="46">
+        <f t="shared" si="41"/>
+        <v>0.26335342524501437</v>
+      </c>
+      <c r="H58" s="46">
+        <f t="shared" si="38"/>
+        <v>0.30188690109528232</v>
+      </c>
+      <c r="I58" s="47">
         <f t="shared" si="42"/>
-        <v>3.4501011343481935E-2</v>
-      </c>
-      <c r="F58" s="46">
-        <f t="shared" si="42"/>
-        <v>5.3</v>
-      </c>
-      <c r="G58" s="46">
-        <f t="shared" si="38"/>
-        <v>0.28989318638490796</v>
-      </c>
-      <c r="H58" s="46">
-        <f t="shared" si="35"/>
-        <v>0.31694405680714482</v>
-      </c>
-      <c r="I58" s="47">
-        <f t="shared" si="39"/>
-        <v>-2.7015945132277178E-2</v>
+        <v>-2.6971563951979232E-2</v>
       </c>
       <c r="J58" s="46">
         <f>I55</f>
-        <v>-5.9278458270829856E-4</v>
+        <v>-5.6537448665887899E-4</v>
       </c>
       <c r="K58" s="47">
-        <f t="shared" si="40"/>
-        <v>62.989354367399237</v>
+        <f t="shared" si="43"/>
+        <v>64.71721597855985</v>
       </c>
       <c r="L58" s="46">
         <f>K55</f>
-        <v>78.197168394219815</v>
+        <v>80.096914450360671</v>
       </c>
       <c r="M58" s="47">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>-44.551699294519231</v>
       </c>
       <c r="N58" s="46">
@@ -17935,7 +17947,7 @@
         <v>0</v>
       </c>
       <c r="P58" s="47">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>8.5</v>
       </c>
       <c r="Q58" s="46">
@@ -17943,8 +17955,8 @@
         <v>5.3</v>
       </c>
       <c r="R58" s="46">
-        <f t="shared" si="37"/>
-        <v>-3.3964054749609188E-2</v>
+        <f t="shared" si="40"/>
+        <v>-3.2393571929929234E-2</v>
       </c>
       <c r="S58" s="46"/>
       <c r="T58" s="46"/>
@@ -17973,43 +17985,43 @@
       <c r="B59" s="38"/>
       <c r="C59" s="12"/>
       <c r="D59" s="46">
+        <f t="shared" si="45"/>
+        <v>0.59086559125904159</v>
+      </c>
+      <c r="E59" s="46">
+        <f t="shared" si="45"/>
+        <v>3.8854360373795152E-2</v>
+      </c>
+      <c r="F59" s="46">
+        <f t="shared" si="45"/>
+        <v>6.3</v>
+      </c>
+      <c r="G59" s="46">
+        <f t="shared" si="41"/>
+        <v>0.34912214693389682</v>
+      </c>
+      <c r="H59" s="46">
+        <f t="shared" si="38"/>
+        <v>0.33893316429760684</v>
+      </c>
+      <c r="I59" s="47">
         <f t="shared" si="42"/>
-        <v>0.62106308050824466</v>
-      </c>
-      <c r="E59" s="46">
-        <f t="shared" si="42"/>
-        <v>4.0817922359437674E-2</v>
-      </c>
-      <c r="F59" s="46">
-        <f t="shared" si="42"/>
-        <v>6.3</v>
-      </c>
-      <c r="G59" s="46">
-        <f t="shared" si="38"/>
-        <v>0.38571934997039037</v>
-      </c>
-      <c r="H59" s="46">
-        <f t="shared" si="35"/>
-        <v>0.35644863954352263</v>
-      </c>
-      <c r="I59" s="47">
-        <f t="shared" si="39"/>
-        <v>6.6006035106386252E-3</v>
+        <v>6.6199115415776629E-3</v>
       </c>
       <c r="J59" s="46">
         <f>I59</f>
-        <v>6.6006035106386252E-3</v>
+        <v>6.6199115415776629E-3</v>
       </c>
       <c r="K59" s="47">
-        <f t="shared" si="40"/>
-        <v>84.30254548668016</v>
+        <f t="shared" si="43"/>
+        <v>86.526480866531131</v>
       </c>
       <c r="L59" s="46">
         <f>K59</f>
-        <v>84.30254548668016</v>
+        <v>86.526480866531131</v>
       </c>
       <c r="M59" s="47">
-        <f t="shared" si="41"/>
+        <f t="shared" si="44"/>
         <v>25.25874245982655</v>
       </c>
       <c r="N59" s="46">
@@ -18017,7 +18029,7 @@
         <v>25.25874245982655</v>
       </c>
       <c r="P59" s="47">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>4.5</v>
       </c>
       <c r="Q59" s="46">
@@ -18025,8 +18037,8 @@
         <v>4.5</v>
       </c>
       <c r="R59" s="46">
-        <f t="shared" si="37"/>
-        <v>0.37818672339882781</v>
+        <f t="shared" si="40"/>
+        <v>0.37929299208234274</v>
       </c>
       <c r="S59" s="46"/>
       <c r="T59" s="46"/>
@@ -18055,51 +18067,51 @@
       <c r="B60" s="38"/>
       <c r="C60" s="12"/>
       <c r="D60" s="46">
+        <f t="shared" si="45"/>
+        <v>0.67765263817216348</v>
+      </c>
+      <c r="E60" s="46">
+        <f t="shared" si="45"/>
+        <v>4.544308502063011E-2</v>
+      </c>
+      <c r="F60" s="46">
+        <f t="shared" si="45"/>
+        <v>7.3</v>
+      </c>
+      <c r="G60" s="46">
+        <f t="shared" si="41"/>
+        <v>0.45921309802169313</v>
+      </c>
+      <c r="H60" s="46">
+        <f t="shared" si="38"/>
+        <v>0.38117366724786839</v>
+      </c>
+      <c r="I60" s="47">
         <f t="shared" si="42"/>
-        <v>0.71375834899749269</v>
-      </c>
-      <c r="E60" s="46">
-        <f t="shared" si="42"/>
-        <v>4.7861466303310674E-2</v>
-      </c>
-      <c r="F60" s="46">
-        <f t="shared" si="42"/>
-        <v>7.3</v>
-      </c>
-      <c r="G60" s="46">
-        <f t="shared" si="38"/>
-        <v>0.5094509807636266</v>
-      </c>
-      <c r="H60" s="46">
-        <f t="shared" si="35"/>
-        <v>0.40150673391878111</v>
-      </c>
-      <c r="I60" s="47">
+        <v>1.0161750996521076E-2</v>
+      </c>
+      <c r="J60" s="46">
+        <f t="shared" ref="J60:L61" si="46">I60</f>
+        <v>1.0161750996521076E-2</v>
+      </c>
+      <c r="K60" s="47">
+        <f t="shared" si="43"/>
+        <v>89.648807815569668</v>
+      </c>
+      <c r="L60" s="46">
+        <f t="shared" si="46"/>
+        <v>89.648807815569668</v>
+      </c>
+      <c r="M60" s="47">
+        <f t="shared" si="44"/>
+        <v>38.934696350074475</v>
+      </c>
+      <c r="N60" s="46">
+        <f t="shared" ref="N60:N61" si="47">M60</f>
+        <v>38.934696350074475</v>
+      </c>
+      <c r="P60" s="47">
         <f t="shared" si="39"/>
-        <v>1.0146105822785845E-2</v>
-      </c>
-      <c r="J60" s="46">
-        <f t="shared" ref="J60:L61" si="43">I60</f>
-        <v>1.0146105822785845E-2</v>
-      </c>
-      <c r="K60" s="47">
-        <f t="shared" si="40"/>
-        <v>87.491598774391591</v>
-      </c>
-      <c r="L60" s="46">
-        <f t="shared" si="43"/>
-        <v>87.491598774391591</v>
-      </c>
-      <c r="M60" s="47">
-        <f t="shared" si="41"/>
-        <v>38.934696350074475</v>
-      </c>
-      <c r="N60" s="46">
-        <f t="shared" ref="N60:N61" si="44">M60</f>
-        <v>38.934696350074475</v>
-      </c>
-      <c r="P60" s="47">
-        <f t="shared" si="36"/>
         <v>4.0999999999999996</v>
       </c>
       <c r="Q60" s="46">
@@ -18107,8 +18119,8 @@
         <v>4.0999999999999996</v>
       </c>
       <c r="R60" s="46">
-        <f t="shared" si="37"/>
-        <v>0.58132904213873859</v>
+        <f t="shared" si="40"/>
+        <v>0.5822254445635161</v>
       </c>
       <c r="S60" s="46"/>
       <c r="T60" s="46"/>
@@ -18135,60 +18147,60 @@
     </row>
     <row r="61" spans="1:41" x14ac:dyDescent="0.55000000000000004">
       <c r="D61" s="46">
+        <f t="shared" si="45"/>
+        <v>0.78607033173851326</v>
+      </c>
+      <c r="E61" s="46">
+        <f t="shared" si="45"/>
+        <v>5.3860455128057809E-2</v>
+      </c>
+      <c r="F61" s="46">
+        <f t="shared" si="45"/>
+        <v>8.5</v>
+      </c>
+      <c r="G61" s="46">
+        <f t="shared" si="41"/>
+        <v>0.61790656643949626</v>
+      </c>
+      <c r="H61" s="46">
+        <f t="shared" si="38"/>
+        <v>0.43274217351471889</v>
+      </c>
+      <c r="I61" s="47">
         <f t="shared" si="42"/>
-        <v>0.8297872247663739</v>
-      </c>
-      <c r="E61" s="46">
-        <f t="shared" si="42"/>
-        <v>5.6880054117986176E-2</v>
-      </c>
-      <c r="F61" s="46">
-        <f t="shared" si="42"/>
-        <v>8.5</v>
-      </c>
-      <c r="G61" s="46">
-        <f t="shared" si="38"/>
-        <v>0.6885468383854807</v>
-      </c>
-      <c r="H61" s="46">
-        <f t="shared" si="35"/>
-        <v>0.45661473078152309</v>
-      </c>
-      <c r="I61" s="47">
-        <f t="shared" si="39"/>
-        <v>1.7196855376755242E-2</v>
+        <v>1.7207647921829751E-2</v>
       </c>
       <c r="J61" s="46">
+        <f t="shared" si="46"/>
+        <v>1.7207647921829751E-2</v>
+      </c>
+      <c r="K61" s="47">
         <f t="shared" si="43"/>
-        <v>1.7196855376755242E-2</v>
-      </c>
-      <c r="K61" s="47">
-        <f t="shared" si="40"/>
-        <v>94.209858613900337</v>
+        <v>96.298038742252388</v>
       </c>
       <c r="L61" s="46">
-        <f t="shared" si="43"/>
-        <v>94.209858613900337</v>
+        <f t="shared" si="46"/>
+        <v>96.298038742252388</v>
       </c>
       <c r="M61" s="47">
-        <f t="shared" si="41"/>
-        <v>80.911102949107573</v>
-      </c>
-      <c r="N61" s="46">
         <f t="shared" si="44"/>
         <v>80.911102949107573</v>
       </c>
+      <c r="N61" s="46">
+        <f t="shared" si="47"/>
+        <v>80.911102949107573</v>
+      </c>
       <c r="P61" s="47">
-        <f t="shared" si="36"/>
+        <f t="shared" si="39"/>
         <v>3.4</v>
       </c>
       <c r="Q61" s="46">
-        <f t="shared" ref="Q61" si="45">P61</f>
+        <f t="shared" ref="Q61" si="48">P61</f>
         <v>3.4</v>
       </c>
       <c r="R61" s="46">
-        <f t="shared" si="37"/>
-        <v>0.98530723398493258</v>
+        <f t="shared" si="40"/>
+        <v>0.98592560126790663</v>
       </c>
       <c r="S61" s="46"/>
       <c r="T61" s="46"/>
@@ -18539,14 +18551,14 @@
         <v>82026.72550020284</v>
       </c>
       <c r="F72" s="29">
-        <f t="shared" ref="F72:F73" si="46">1.225*(1+((-0.00649*D72)/288.15))^(-9.80665/(-0.00649*287))</f>
+        <f t="shared" ref="F72:F73" si="49">1.225*(1+((-0.00649*D72)/288.15))^(-9.80665/(-0.00649*287))</f>
         <v>0.99168752763630375</v>
       </c>
       <c r="G72" s="12">
         <v>82.825484000000003</v>
       </c>
       <c r="H72" s="29">
-        <f t="shared" ref="H72:H73" si="47">G72-2*0.514444</f>
+        <f t="shared" ref="H72:H73" si="50">G72-2*0.514444</f>
         <v>81.796596000000008</v>
       </c>
       <c r="I72" s="39">
@@ -18588,8 +18600,8 @@
         <v>88.535167205599606</v>
       </c>
       <c r="T72" s="29">
-        <f>S72*SQRT(E72/101325)</f>
-        <v>79.659062891368379</v>
+        <f t="shared" ref="T72:T73" si="51">S72*SQRT(E72/287/Q72/1.225)</f>
+        <v>81.660591039700762</v>
       </c>
       <c r="U72" s="29">
         <f>288.15-0.00649*D72</f>
@@ -18600,7 +18612,8 @@
         <v>-2.5668693944666074</v>
       </c>
       <c r="W72">
-        <v>4124.8</v>
+        <f>thrust!O14</f>
+        <v>4128.41</v>
       </c>
       <c r="X72">
         <v>0.50429999999999997</v>
@@ -18614,17 +18627,17 @@
         <v>6312.2879100800001</v>
       </c>
       <c r="AH72" s="21">
-        <f t="shared" ref="AH72:AH73" si="48">AG72*9.80665</f>
+        <f t="shared" ref="AH72:AH73" si="52">AG72*9.80665</f>
         <v>61902.398233386026</v>
       </c>
       <c r="AI72" s="21"/>
       <c r="AJ72" s="34">
         <f>2*AH72/(1.225*$T72^2*$O$2)</f>
-        <v>0.53089635178940009</v>
+        <v>0.50519040010333593</v>
       </c>
       <c r="AK72" s="34">
         <f>2*W72/(1.225*$T72^2*$O$2)</f>
-        <v>3.5375709735909117E-2</v>
+        <v>3.3692282677438526E-2</v>
       </c>
       <c r="AL72" s="35">
         <f>I72</f>
@@ -18632,7 +18645,7 @@
       </c>
       <c r="AM72" s="18">
         <f>AJ72^2</f>
-        <v>0.28185093634329444</v>
+        <v>0.25521734035656862</v>
       </c>
     </row>
     <row r="73" spans="1:39" x14ac:dyDescent="0.55000000000000004">
@@ -18653,14 +18666,14 @@
         <v>81841.724803470875</v>
       </c>
       <c r="F73" s="29">
-        <f t="shared" si="46"/>
+        <f t="shared" si="49"/>
         <v>0.98945090435975158</v>
       </c>
       <c r="G73" s="12">
         <v>82.825484000000003</v>
       </c>
       <c r="H73" s="29">
-        <f t="shared" si="47"/>
+        <f t="shared" si="50"/>
         <v>81.796596000000008</v>
       </c>
       <c r="I73" s="39">
@@ -18700,8 +18713,8 @@
         <v>88.632051432520953</v>
       </c>
       <c r="T73" s="29">
-        <f>S73*SQRT(E73/101325)</f>
-        <v>79.656254543894875</v>
+        <f t="shared" si="51"/>
+        <v>81.658984137323841</v>
       </c>
       <c r="U73" s="29">
         <f>288.15-0.00649*D73</f>
@@ -18712,10 +18725,11 @@
         <v>-2.4567241813922465</v>
       </c>
       <c r="W73">
-        <v>4088.63</v>
+        <f>thrust!O15</f>
+        <v>4088.98</v>
       </c>
       <c r="X73">
-        <v>0.42649999999999999</v>
+        <v>0.46089999999999998</v>
       </c>
       <c r="AE73" s="42"/>
       <c r="AF73" s="20" t="s">
@@ -18726,17 +18740,17 @@
         <v>6299.1337313499998</v>
       </c>
       <c r="AH73" s="21">
-        <f t="shared" si="48"/>
+        <f t="shared" si="52"/>
         <v>61773.399806543472</v>
       </c>
       <c r="AI73" s="21"/>
       <c r="AJ73" s="34">
         <f>2*AH73/(1.225*$T73^2*$O$2)</f>
-        <v>0.52982737375098921</v>
+        <v>0.50415747491660179</v>
       </c>
       <c r="AK73" s="34">
         <f>2*W73/(1.225*$T73^2*$O$2)</f>
-        <v>3.5067975891300077E-2</v>
+        <v>3.3371804664151232E-2</v>
       </c>
       <c r="AL73" s="35">
         <f>I73</f>
@@ -18744,7 +18758,7 @@
       </c>
       <c r="AM73" s="18">
         <f>AJ73^2</f>
-        <v>0.28071704597587038</v>
+        <v>0.25417475951428398</v>
       </c>
     </row>
     <row r="75" spans="1:39" ht="18.3" x14ac:dyDescent="0.7">
@@ -18803,7 +18817,7 @@
       </c>
       <c r="T78" s="51">
         <f>X73</f>
-        <v>0.42649999999999999</v>
+        <v>0.46089999999999998</v>
       </c>
       <c r="U78" s="51"/>
       <c r="V78" s="51"/>
@@ -18827,7 +18841,7 @@
       </c>
       <c r="T79" s="51">
         <f>T78-T77</f>
-        <v>-7.779999999999998E-2</v>
+        <v>-4.3399999999999994E-2</v>
       </c>
       <c r="U79" s="51"/>
       <c r="V79" s="51"/>
@@ -18920,7 +18934,7 @@
       </c>
       <c r="T82" s="52">
         <f>-1/RADIANS(J73-J72)*AVERAGE(AJ72:AJ73)*(T79)/O3</f>
-        <v>-2.2987478400905754</v>
+        <v>-1.2202253882943743</v>
       </c>
       <c r="U82" s="51"/>
       <c r="V82" s="51"/>
@@ -18935,7 +18949,7 @@
       </c>
       <c r="T83" s="51">
         <f>T82*0.4861</f>
-        <v>-1.1174213250680287</v>
+        <v>-0.59315156124989532</v>
       </c>
       <c r="U83" s="51"/>
       <c r="V83" s="51"/>
@@ -18977,350 +18991,515 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ED761E-983A-4C9F-8D37-B635CEA23338}">
-  <dimension ref="A1:S27"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="S26" sqref="S26:S27"/>
+      <selection activeCell="O1" sqref="O1:O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="13.20703125" style="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.15625" style="33" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.734375" style="33" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.9453125" style="32" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.20703125" style="32" customWidth="1"/>
+    <col min="4" max="5" width="13.20703125" style="32" customWidth="1"/>
+    <col min="10" max="11" width="13.20703125" style="57" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="32">
+        <f>Sheet1!D28</f>
         <v>1527.048</v>
       </c>
-      <c r="B1" s="54">
+      <c r="B1" s="32">
+        <f>Sheet1!R28</f>
         <v>0.4080702520295213</v>
       </c>
-      <c r="C1" s="33">
+      <c r="C1" s="32">
+        <f>Sheet1!V28</f>
         <v>-1.7961983809458388</v>
       </c>
-      <c r="D1" s="32">
+      <c r="D1">
+        <f t="shared" ref="D1:D15" si="0">J1/3600</f>
         <v>0.10054630868333334</v>
       </c>
-      <c r="E1" s="32">
+      <c r="E1">
+        <f t="shared" ref="E1:E15" si="1">K1/3600</f>
         <v>0.10243627689166668</v>
       </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J1" s="57">
+        <f>Sheet1!M28</f>
+        <v>361.96671126000001</v>
+      </c>
+      <c r="K1" s="57">
+        <f>Sheet1!N28</f>
+        <v>368.77059681000003</v>
+      </c>
+      <c r="O1">
+        <v>7463.19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="32">
+        <f>Sheet1!D29</f>
         <v>1530.096</v>
       </c>
-      <c r="B2" s="54">
+      <c r="B2" s="32">
+        <f>Sheet1!R29</f>
         <v>0.36213917876500906</v>
       </c>
-      <c r="C2" s="33">
+      <c r="C2" s="32">
+        <f>Sheet1!V29</f>
         <v>-1.8193687476443756</v>
       </c>
-      <c r="D2" s="32">
+      <c r="D2">
+        <f t="shared" si="0"/>
         <v>8.4796573613888898E-2</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2">
+        <f t="shared" si="1"/>
         <v>8.5930554538888898E-2</v>
       </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2" s="57">
+        <f>Sheet1!M29</f>
+        <v>305.26766501000003</v>
+      </c>
+      <c r="K2" s="57">
+        <f>Sheet1!N29</f>
+        <v>309.34999634000002</v>
+      </c>
+      <c r="O2">
+        <v>6077.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="32">
+        <f>Sheet1!D30</f>
         <v>1530.096</v>
       </c>
-      <c r="B3" s="54">
+      <c r="B3" s="32">
+        <f>Sheet1!R30</f>
         <v>0.31438668006839776</v>
       </c>
-      <c r="C3" s="33">
+      <c r="C3" s="32">
+        <f>Sheet1!V30</f>
         <v>-1.7351666123233827</v>
       </c>
-      <c r="D3" s="32">
+      <c r="D3">
+        <f t="shared" si="0"/>
         <v>7.0684810991666666E-2</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3">
+        <f t="shared" si="1"/>
         <v>7.2952772841666666E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3" s="57">
+        <f>Sheet1!M30</f>
+        <v>254.46531957000002</v>
+      </c>
+      <c r="K3" s="57">
+        <f>Sheet1!N30</f>
+        <v>262.62998223</v>
+      </c>
+      <c r="O3">
+        <v>4948.68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="32">
+        <f>Sheet1!D31</f>
         <v>1533.144</v>
       </c>
-      <c r="B4" s="54">
+      <c r="B4" s="32">
+        <f>Sheet1!R31</f>
         <v>0.2665999599254415</v>
       </c>
-      <c r="C4" s="33">
+      <c r="C4" s="32">
+        <f>Sheet1!V31</f>
         <v>-1.7792447671300806</v>
       </c>
-      <c r="D4" s="32">
+      <c r="D4">
+        <f t="shared" si="0"/>
         <v>5.8337018697222222E-2</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4">
+        <f t="shared" si="1"/>
         <v>6.0982974188888893E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4" s="57">
+        <f>Sheet1!M31</f>
+        <v>210.01326731</v>
+      </c>
+      <c r="K4" s="57">
+        <f>Sheet1!N31</f>
+        <v>219.53870708000002</v>
+      </c>
+      <c r="O4">
+        <v>3900.24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="32">
+        <f>Sheet1!D32</f>
         <v>1530.096</v>
       </c>
-      <c r="B5" s="54">
+      <c r="B5" s="32">
+        <f>Sheet1!R32</f>
         <v>0.21202948818695572</v>
       </c>
-      <c r="C5" s="33">
+      <c r="C5" s="32">
+        <f>Sheet1!V32</f>
         <v>-1.5572322130818748</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5">
+        <f t="shared" si="0"/>
         <v>5.5817061086111112E-2</v>
       </c>
-      <c r="E5" s="32">
+      <c r="E5">
+        <f t="shared" si="1"/>
         <v>5.8841010219444448E-2</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J5" s="57">
+        <f>Sheet1!M32</f>
+        <v>200.94141991000001</v>
+      </c>
+      <c r="K5" s="57">
+        <f>Sheet1!N32</f>
+        <v>211.82763679000001</v>
+      </c>
+      <c r="O5">
+        <v>3990.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="32">
+        <f>Sheet1!D33</f>
         <v>1557.528</v>
       </c>
-      <c r="B6" s="54">
+      <c r="B6" s="32">
+        <f>Sheet1!R33</f>
         <v>0.19250483209916044</v>
       </c>
-      <c r="C6" s="33">
+      <c r="C6" s="32">
+        <f>Sheet1!V33</f>
         <v>-1.7394904158982172</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6">
+        <f t="shared" si="0"/>
         <v>5.9722995383333338E-2</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6">
+        <f t="shared" si="1"/>
         <v>6.2872942397222228E-2</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J6" s="57">
+        <f>Sheet1!M33</f>
+        <v>215.00278338000001</v>
+      </c>
+      <c r="K6" s="57">
+        <f>Sheet1!N33</f>
+        <v>226.34259263000001</v>
+      </c>
+      <c r="O6">
+        <v>4639.28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="32">
+        <f>Sheet1!D45</f>
         <v>1847.0880000000002</v>
       </c>
-      <c r="B7" s="54">
+      <c r="B7" s="32">
+        <f>Sheet1!R45</f>
         <v>0.26834335044671087</v>
       </c>
-      <c r="C7" s="33">
+      <c r="C7" s="32">
+        <f>Sheet1!V45</f>
         <v>-1.4684398461061505</v>
       </c>
-      <c r="D7" s="32">
+      <c r="D7">
+        <f t="shared" si="0"/>
         <v>5.8211020816666667E-2</v>
       </c>
-      <c r="E7" s="32">
+      <c r="E7">
+        <f t="shared" si="1"/>
         <v>6.1234969950000002E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7" s="57">
+        <f>Sheet1!M45</f>
+        <v>209.55967494000001</v>
+      </c>
+      <c r="K7" s="57">
+        <f>Sheet1!N45</f>
+        <v>220.44589182000001</v>
+      </c>
+      <c r="O7">
+        <v>4031.1499999999901</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="32">
+        <f>Sheet1!D46</f>
         <v>1935.48</v>
       </c>
-      <c r="B8" s="54">
+      <c r="B8" s="32">
+        <f>Sheet1!R46</f>
         <v>0.25118700080512407</v>
       </c>
-      <c r="C8" s="33">
+      <c r="C8" s="32">
+        <f>Sheet1!V46</f>
         <v>-1.3987334571677366</v>
       </c>
-      <c r="D8" s="32">
+      <c r="D8">
+        <f t="shared" si="0"/>
         <v>5.7707029294444441E-2</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8">
+        <f t="shared" si="1"/>
         <v>6.0730978427777776E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8" s="57">
+        <f>Sheet1!M46</f>
+        <v>207.74530546</v>
+      </c>
+      <c r="K8" s="57">
+        <f>Sheet1!N46</f>
+        <v>218.63152234</v>
+      </c>
+      <c r="O8">
+        <v>4125.3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="32">
+        <f>Sheet1!D47</f>
         <v>1996.44</v>
       </c>
-      <c r="B9" s="54">
+      <c r="B9" s="32">
+        <f>Sheet1!R47</f>
         <v>0.23513938555653388</v>
       </c>
-      <c r="C9" s="33">
+      <c r="C9" s="32">
+        <f>Sheet1!V47</f>
         <v>-1.5688702207417577</v>
       </c>
-      <c r="D9" s="32">
+      <c r="D9">
+        <f t="shared" si="0"/>
         <v>5.7203037772222229E-2</v>
       </c>
-      <c r="E9" s="32">
+      <c r="E9">
+        <f t="shared" si="1"/>
         <v>6.0100989025000003E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J9" s="57">
+        <f>Sheet1!M47</f>
+        <v>205.93093598000002</v>
+      </c>
+      <c r="K9" s="57">
+        <f>Sheet1!N47</f>
+        <v>216.36356049</v>
+      </c>
+      <c r="O9">
+        <v>4196.1899999999996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="32">
+        <f>Sheet1!D48</f>
         <v>2097.0239999999999</v>
       </c>
-      <c r="B10" s="54">
+      <c r="B10" s="32">
+        <f>Sheet1!R48</f>
         <v>0.21949628720770484</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="32">
+        <f>Sheet1!V48</f>
         <v>-1.5210524981773688</v>
       </c>
-      <c r="D10" s="32">
+      <c r="D10">
+        <f t="shared" si="0"/>
         <v>5.6573048369444448E-2</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10">
+        <f t="shared" si="1"/>
         <v>5.9596997502777783E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10" s="57">
+        <f>Sheet1!M48</f>
+        <v>203.66297413000001</v>
+      </c>
+      <c r="K10" s="57">
+        <f>Sheet1!N48</f>
+        <v>214.54919101000002</v>
+      </c>
+      <c r="O10">
+        <v>4279.87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="32">
+        <f>Sheet1!D49</f>
         <v>1877.568</v>
       </c>
-      <c r="B11" s="54">
+      <c r="B11" s="32">
+        <f>Sheet1!R49</f>
         <v>0.28905112790633636</v>
       </c>
-      <c r="C11" s="33">
+      <c r="C11" s="32">
+        <f>Sheet1!V49</f>
         <v>-2.3861103122314944</v>
       </c>
-      <c r="D11" s="32">
+      <c r="D11">
+        <f t="shared" si="0"/>
         <v>5.8589014458333338E-2</v>
       </c>
-      <c r="E11" s="32">
+      <c r="E11">
+        <f t="shared" si="1"/>
         <v>6.1612963591666667E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11" s="57">
+        <f>Sheet1!M49</f>
+        <v>210.92045205000002</v>
+      </c>
+      <c r="K11" s="57">
+        <f>Sheet1!N49</f>
+        <v>221.80666893</v>
+      </c>
+      <c r="O11">
+        <v>3963.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="32">
+        <f>Sheet1!D50</f>
         <v>1770.8880000000001</v>
       </c>
-      <c r="B12" s="54">
+      <c r="B12" s="32">
+        <f>Sheet1!R50</f>
         <v>0.29722561767523403</v>
       </c>
-      <c r="C12" s="33">
+      <c r="C12" s="32">
+        <f>Sheet1!V50</f>
         <v>-2.1569707047172528</v>
       </c>
-      <c r="D12" s="32">
+      <c r="D12">
+        <f t="shared" si="0"/>
         <v>5.9470999622222229E-2</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12">
+        <f t="shared" si="1"/>
         <v>6.2494948755555557E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12" s="57">
+        <f>Sheet1!M50</f>
+        <v>214.09559864000002</v>
+      </c>
+      <c r="K12" s="57">
+        <f>Sheet1!N50</f>
+        <v>224.98181552</v>
+      </c>
+      <c r="O12">
+        <v>3961.72999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="32">
+        <f>Sheet1!D51</f>
         <v>1618.4880000000001</v>
       </c>
-      <c r="B13" s="54">
+      <c r="B13" s="32">
+        <f>Sheet1!R51</f>
         <v>0.31604762913660517</v>
       </c>
-      <c r="C13" s="33">
+      <c r="C13" s="32">
+        <f>Sheet1!V51</f>
         <v>-1.806519341320552</v>
       </c>
-      <c r="D13" s="32">
+      <c r="D13">
+        <f t="shared" si="0"/>
         <v>6.0730978427777776E-2</v>
       </c>
-      <c r="E13" s="32">
+      <c r="E13">
+        <f t="shared" si="1"/>
         <v>6.3628929680555557E-2</v>
       </c>
-      <c r="S13">
-        <v>7458.62</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="57">
+      <c r="J13" s="57">
+        <f>Sheet1!M51</f>
+        <v>218.63152234</v>
+      </c>
+      <c r="K13" s="57">
+        <f>Sheet1!N51</f>
+        <v>229.06414685000001</v>
+      </c>
+      <c r="O13">
+        <v>3902.97999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="32">
+        <f>Sheet1!D72</f>
         <v>1746.5040000000001</v>
       </c>
       <c r="B14" s="32">
+        <f>Sheet1!R72</f>
         <v>0.26670972891840994</v>
       </c>
-      <c r="C14" s="33">
+      <c r="C14" s="32">
+        <f>Sheet1!V72</f>
         <v>-2.5668693944666074</v>
       </c>
-      <c r="D14" s="32">
+      <c r="D14">
+        <f t="shared" si="0"/>
         <v>5.9345001741666674E-2</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14">
+        <f t="shared" si="1"/>
         <v>6.2116955113888893E-2</v>
       </c>
-      <c r="S14">
-        <v>6076.15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="57">
+      <c r="J14" s="57">
+        <f>Sheet1!M72</f>
+        <v>213.64200627000002</v>
+      </c>
+      <c r="K14" s="57">
+        <f>Sheet1!N72</f>
+        <v>223.62103841000001</v>
+      </c>
+      <c r="O14">
+        <v>4128.41</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="32">
+        <f>Sheet1!D73</f>
         <v>1764.7920000000001</v>
       </c>
       <c r="B15" s="32">
+        <f>Sheet1!R73</f>
         <v>0.26700574912619163</v>
       </c>
-      <c r="C15" s="33">
+      <c r="C15" s="32">
+        <f>Sheet1!V73</f>
         <v>-2.4567241813922465</v>
       </c>
-      <c r="D15" s="32">
+      <c r="D15">
+        <f t="shared" si="0"/>
         <v>5.8967008100000003E-2</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15">
+        <f t="shared" si="1"/>
         <v>6.1738961472222229E-2</v>
       </c>
-      <c r="S15">
-        <v>4952.18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="S16">
-        <v>3899.08</v>
-      </c>
-    </row>
-    <row r="17" spans="19:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="S17">
-        <v>3986.95</v>
-      </c>
-    </row>
-    <row r="18" spans="19:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="S18">
-        <v>4639.53</v>
-      </c>
-    </row>
-    <row r="19" spans="19:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="S19">
-        <v>4028.47</v>
-      </c>
-    </row>
-    <row r="20" spans="19:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="S20">
-        <v>4123.0599999999904</v>
-      </c>
-    </row>
-    <row r="21" spans="19:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="S21">
-        <v>4195.9399999999996</v>
-      </c>
-    </row>
-    <row r="22" spans="19:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="S22">
-        <v>4281.6899999999996</v>
-      </c>
-    </row>
-    <row r="23" spans="19:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="S23">
-        <v>3963.58</v>
-      </c>
-    </row>
-    <row r="24" spans="19:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="S24">
-        <v>3963.66</v>
-      </c>
-    </row>
-    <row r="25" spans="19:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="S25">
-        <v>3899.67</v>
-      </c>
-    </row>
-    <row r="26" spans="19:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="S26">
-        <v>4124.8</v>
-      </c>
-    </row>
-    <row r="27" spans="19:19" x14ac:dyDescent="0.55000000000000004">
-      <c r="S27">
-        <v>4088.63</v>
+      <c r="J15" s="57">
+        <f>Sheet1!M73</f>
+        <v>212.28122916000001</v>
+      </c>
+      <c r="K15" s="57">
+        <f>Sheet1!N73</f>
+        <v>222.26026130000002</v>
+      </c>
+      <c r="O15">
+        <v>4088.98</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A14:A15">
-    <cfRule type="expression" priority="1">
-      <formula>LEN(TRIM(A14))=0</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
